--- a/report/reliability/by-comb/UFAL A.C. Simões-Ciências da Saúde.xlsx
+++ b/report/reliability/by-comb/UFAL A.C. Simões-Ciências da Saúde.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="47">
   <si>
     <t>Reliability Analysis of all</t>
   </si>
@@ -71,22 +71,28 @@
     <t>med.r</t>
   </si>
   <si>
+    <t>Item3</t>
+  </si>
+  <si>
     <t>Item4</t>
   </si>
   <si>
     <t>Item5</t>
   </si>
   <si>
-    <t>Item3</t>
-  </si>
-  <si>
     <t>Item6</t>
   </si>
   <si>
-    <t>Item15</t>
+    <t>Item12</t>
   </si>
   <si>
     <t>Item13</t>
+  </si>
+  <si>
+    <t>Item14</t>
+  </si>
+  <si>
+    <t>Item15</t>
   </si>
   <si>
     <t>Item17</t>
@@ -95,31 +101,13 @@
     <t>Item18</t>
   </si>
   <si>
-    <t>Item14</t>
-  </si>
-  <si>
-    <t>Item12</t>
-  </si>
-  <si>
     <t>Item19</t>
   </si>
   <si>
-    <t>Item2</t>
-  </si>
-  <si>
-    <t>Item11</t>
-  </si>
-  <si>
-    <t>Item16</t>
-  </si>
-  <si>
-    <t>Item9</t>
+    <t>Item21</t>
   </si>
   <si>
     <t>Item23</t>
-  </si>
-  <si>
-    <t>Item21</t>
   </si>
   <si>
     <t>Item statistics</t>
@@ -2475,28 +2463,28 @@
     </row>
     <row r="6">
       <c r="A6" t="n" s="31">
-        <v>0.8970945168433573</v>
+        <v>0.8736572999914066</v>
       </c>
       <c r="B6" t="n" s="32">
-        <v>0.8960006246623122</v>
+        <v>0.8731652883617127</v>
       </c>
       <c r="C6" t="n" s="33">
-        <v>0.9313453374420684</v>
+        <v>0.9034624694030604</v>
       </c>
       <c r="D6" t="n" s="34">
-        <v>0.33633783266644296</v>
+        <v>0.34621711421433343</v>
       </c>
       <c r="E6" t="n" s="35">
-        <v>8.615442369273687</v>
+        <v>6.8842770018025</v>
       </c>
       <c r="F6" t="n" s="36">
-        <v>0.019830502361146696</v>
+        <v>0.024724746021384997</v>
       </c>
       <c r="G6" t="n" s="37">
-        <v>2.554466230936819</v>
+        <v>2.427350427350427</v>
       </c>
       <c r="H6" t="n" s="38">
-        <v>0.6124432602239807</v>
+        <v>0.6457782215042049</v>
       </c>
       <c r="I6" t="n" s="39">
         <v>0.327932749341343</v>
@@ -2549,28 +2537,28 @@
         <v>18</v>
       </c>
       <c r="B11" t="n" s="58">
-        <v>0.8825655138789991</v>
+        <v>0.8688232112439553</v>
       </c>
       <c r="C11" t="n" s="59">
-        <v>0.8820630368301161</v>
+        <v>0.868804191125212</v>
       </c>
       <c r="D11" t="n" s="60">
-        <v>0.9182460251928553</v>
+        <v>0.8989050981322915</v>
       </c>
       <c r="E11" t="n" s="61">
-        <v>0.3185430454829451</v>
+        <v>0.35560763976866544</v>
       </c>
       <c r="F11" t="n" s="62">
-        <v>7.4791058979493705</v>
+        <v>6.6221947071067735</v>
       </c>
       <c r="G11" t="n" s="63">
-        <v>0.022842434015214207</v>
+        <v>0.02581367193760128</v>
       </c>
       <c r="H11" t="n" s="64">
-        <v>0.015770919790840554</v>
+        <v>0.018524006512838424</v>
       </c>
       <c r="I11" t="n" s="65">
-        <v>0.31477766131670437</v>
+        <v>0.33780659839728233</v>
       </c>
     </row>
     <row r="12">
@@ -2578,28 +2566,28 @@
         <v>19</v>
       </c>
       <c r="B12" t="n" s="58">
-        <v>0.8897589355032086</v>
+        <v>0.8520293766195406</v>
       </c>
       <c r="C12" t="n" s="59">
-        <v>0.8888162854085953</v>
+        <v>0.8526563814410189</v>
       </c>
       <c r="D12" t="n" s="60">
-        <v>0.9205411466938732</v>
+        <v>0.8805210996505799</v>
       </c>
       <c r="E12" t="n" s="61">
-        <v>0.33317004218989</v>
+        <v>0.32534453298641586</v>
       </c>
       <c r="F12" t="n" s="62">
-        <v>7.994122958339319</v>
+        <v>5.786856531555211</v>
       </c>
       <c r="G12" t="n" s="63">
-        <v>0.021252828979906383</v>
+        <v>0.02924002811927121</v>
       </c>
       <c r="H12" t="n" s="64">
-        <v>0.016740949169700783</v>
+        <v>0.015368630166131811</v>
       </c>
       <c r="I12" t="n" s="65">
-        <v>0.327932749341343</v>
+        <v>0.3166018427233895</v>
       </c>
     </row>
     <row r="13">
@@ -2607,28 +2595,28 @@
         <v>20</v>
       </c>
       <c r="B13" t="n" s="58">
-        <v>0.8929521972756075</v>
+        <v>0.8621906243151866</v>
       </c>
       <c r="C13" t="n" s="59">
-        <v>0.8916527025438055</v>
+        <v>0.8622696283488628</v>
       </c>
       <c r="D13" t="n" s="60">
-        <v>0.9271905056534192</v>
+        <v>0.8862664068727609</v>
       </c>
       <c r="E13" t="n" s="61">
-        <v>0.33965011763970193</v>
+        <v>0.34284609994246223</v>
       </c>
       <c r="F13" t="n" s="62">
-        <v>8.229579541698365</v>
+        <v>6.260562706771318</v>
       </c>
       <c r="G13" t="n" s="63">
-        <v>0.020648320244663163</v>
+        <v>0.027029811634359534</v>
       </c>
       <c r="H13" t="n" s="64">
-        <v>0.0188739534349092</v>
+        <v>0.01621830707780437</v>
       </c>
       <c r="I13" t="n" s="65">
-        <v>0.32942234223164757</v>
+        <v>0.327932749341343</v>
       </c>
     </row>
     <row r="14">
@@ -2636,28 +2624,28 @@
         <v>21</v>
       </c>
       <c r="B14" t="n" s="58">
-        <v>0.8915694310364717</v>
+        <v>0.8633832323279395</v>
       </c>
       <c r="C14" t="n" s="59">
-        <v>0.8907124956772543</v>
+        <v>0.863272019959586</v>
       </c>
       <c r="D14" t="n" s="60">
-        <v>0.9248410002127615</v>
+        <v>0.8893314047921091</v>
       </c>
       <c r="E14" t="n" s="61">
-        <v>0.33747897370800817</v>
+        <v>0.344756125241082</v>
       </c>
       <c r="F14" t="n" s="62">
-        <v>8.1501769227598</v>
+        <v>6.3137919517601375</v>
       </c>
       <c r="G14" t="n" s="63">
-        <v>0.020920495232822158</v>
+        <v>0.026809288787498442</v>
       </c>
       <c r="H14" t="n" s="64">
-        <v>0.016951894980008046</v>
+        <v>0.016795245107490003</v>
       </c>
       <c r="I14" t="n" s="65">
-        <v>0.3308183713544234</v>
+        <v>0.3345938685935269</v>
       </c>
     </row>
     <row r="15">
@@ -2665,28 +2653,28 @@
         <v>22</v>
       </c>
       <c r="B15" t="n" s="58">
-        <v>0.8911460201324629</v>
+        <v>0.8761772190443047</v>
       </c>
       <c r="C15" t="n" s="59">
-        <v>0.8899312600579476</v>
+        <v>0.8752917857177369</v>
       </c>
       <c r="D15" t="n" s="60">
-        <v>0.9229359521006795</v>
+        <v>0.903129109162408</v>
       </c>
       <c r="E15" t="n" s="61">
-        <v>0.33569250106109144</v>
+        <v>0.3690426445557164</v>
       </c>
       <c r="F15" t="n" s="62">
-        <v>8.085231651842909</v>
+        <v>7.01871797904677</v>
       </c>
       <c r="G15" t="n" s="63">
-        <v>0.020965441454069488</v>
+        <v>0.02425050882784674</v>
       </c>
       <c r="H15" t="n" s="64">
-        <v>0.018561187006009883</v>
+        <v>0.016772909505097862</v>
       </c>
       <c r="I15" t="n" s="65">
-        <v>0.3271580542528115</v>
+        <v>0.349972126204103</v>
       </c>
     </row>
     <row r="16">
@@ -2694,28 +2682,28 @@
         <v>23</v>
       </c>
       <c r="B16" t="n" s="58">
-        <v>0.8954831747094997</v>
+        <v>0.8708708139224429</v>
       </c>
       <c r="C16" t="n" s="59">
-        <v>0.8947416511077053</v>
+        <v>0.8711941271041816</v>
       </c>
       <c r="D16" t="n" s="60">
-        <v>0.9286313643171166</v>
+        <v>0.8999626452093853</v>
       </c>
       <c r="E16" t="n" s="61">
-        <v>0.34695034467932756</v>
+        <v>0.3604645979902556</v>
       </c>
       <c r="F16" t="n" s="62">
-        <v>8.500434032299406</v>
+        <v>6.763621157311882</v>
       </c>
       <c r="G16" t="n" s="63">
-        <v>0.020213636598390018</v>
+        <v>0.025455347828939285</v>
       </c>
       <c r="H16" t="n" s="64">
-        <v>0.018497498645276927</v>
+        <v>0.01798854570001681</v>
       </c>
       <c r="I16" t="n" s="65">
-        <v>0.3345938685935269</v>
+        <v>0.33780659839728233</v>
       </c>
     </row>
     <row r="17">
@@ -2723,28 +2711,28 @@
         <v>24</v>
       </c>
       <c r="B17" t="n" s="58">
-        <v>0.8890716203504707</v>
+        <v>0.863124490472487</v>
       </c>
       <c r="C17" t="n" s="59">
-        <v>0.8877717558011369</v>
+        <v>0.8616686938934474</v>
       </c>
       <c r="D17" t="n" s="60">
-        <v>0.9229019014476484</v>
+        <v>0.8877729405882331</v>
       </c>
       <c r="E17" t="n" s="61">
-        <v>0.33083548008005276</v>
+        <v>0.3417090471245847</v>
       </c>
       <c r="F17" t="n" s="62">
-        <v>7.910412945853876</v>
+        <v>6.22902160144233</v>
       </c>
       <c r="G17" t="n" s="63">
-        <v>0.021407136423135565</v>
+        <v>0.026707149374158013</v>
       </c>
       <c r="H17" t="n" s="64">
-        <v>0.018329480123668297</v>
+        <v>0.018593876845315483</v>
       </c>
       <c r="I17" t="n" s="65">
-        <v>0.32288537487813207</v>
+        <v>0.33092677960323424</v>
       </c>
     </row>
     <row r="18">
@@ -2752,28 +2740,28 @@
         <v>25</v>
       </c>
       <c r="B18" t="n" s="58">
-        <v>0.8847225849030376</v>
+        <v>0.863282344574755</v>
       </c>
       <c r="C18" t="n" s="59">
-        <v>0.8844369335499713</v>
+        <v>0.8621291998327892</v>
       </c>
       <c r="D18" t="n" s="60">
-        <v>0.9202766332232003</v>
+        <v>0.8878967168550189</v>
       </c>
       <c r="E18" t="n" s="61">
-        <v>0.32356115123598783</v>
+        <v>0.3425798545241963</v>
       </c>
       <c r="F18" t="n" s="62">
-        <v>7.653283706627984</v>
+        <v>6.253167449432319</v>
       </c>
       <c r="G18" t="n" s="63">
-        <v>0.022527349732086914</v>
+        <v>0.026750877645172505</v>
       </c>
       <c r="H18" t="n" s="64">
-        <v>0.016867080587009226</v>
+        <v>0.018604987785704817</v>
       </c>
       <c r="I18" t="n" s="65">
-        <v>0.31612981432778253</v>
+        <v>0.3271580542528115</v>
       </c>
     </row>
     <row r="19">
@@ -2781,28 +2769,28 @@
         <v>26</v>
       </c>
       <c r="B19" t="n" s="58">
-        <v>0.8915793647656116</v>
+        <v>0.8631436722505024</v>
       </c>
       <c r="C19" t="n" s="59">
-        <v>0.8902262496267886</v>
+        <v>0.8625805122072837</v>
       </c>
       <c r="D19" t="n" s="60">
-        <v>0.924109989233508</v>
+        <v>0.8904755305241092</v>
       </c>
       <c r="E19" t="n" s="61">
-        <v>0.33636520269827025</v>
+        <v>0.3434366851776033</v>
       </c>
       <c r="F19" t="n" s="62">
-        <v>8.109645945412055</v>
+        <v>6.276988264636829</v>
       </c>
       <c r="G19" t="n" s="63">
-        <v>0.020838374166367867</v>
+        <v>0.026871597458170113</v>
       </c>
       <c r="H19" t="n" s="64">
-        <v>0.01854193025635582</v>
+        <v>0.017893787716977635</v>
       </c>
       <c r="I19" t="n" s="65">
-        <v>0.3318202375131492</v>
+        <v>0.327932749341343</v>
       </c>
     </row>
     <row r="20">
@@ -2810,28 +2798,28 @@
         <v>27</v>
       </c>
       <c r="B20" t="n" s="58">
-        <v>0.8984154854231368</v>
+        <v>0.8538732071877346</v>
       </c>
       <c r="C20" t="n" s="59">
-        <v>0.8971088754786396</v>
+        <v>0.8547718573132813</v>
       </c>
       <c r="D20" t="n" s="60">
-        <v>0.927332522756519</v>
+        <v>0.8872601249326003</v>
       </c>
       <c r="E20" t="n" s="61">
-        <v>0.3527249201950312</v>
+        <v>0.32907361240639416</v>
       </c>
       <c r="F20" t="n" s="62">
-        <v>8.719011281603764</v>
+        <v>5.885717750705985</v>
       </c>
       <c r="G20" t="n" s="63">
-        <v>0.019564032713977973</v>
+        <v>0.029124991205894513</v>
       </c>
       <c r="H20" t="n" s="64">
-        <v>0.01708813563589687</v>
+        <v>0.016513529233592988</v>
       </c>
       <c r="I20" t="n" s="65">
-        <v>0.3424676364551711</v>
+        <v>0.3166018427233895</v>
       </c>
     </row>
     <row r="21">
@@ -2839,28 +2827,28 @@
         <v>28</v>
       </c>
       <c r="B21" t="n" s="58">
-        <v>0.8933567638595094</v>
+        <v>0.8708576855944311</v>
       </c>
       <c r="C21" t="n" s="59">
-        <v>0.8913283270159604</v>
+        <v>0.8693261753042355</v>
       </c>
       <c r="D21" t="n" s="60">
-        <v>0.9285918534276284</v>
+        <v>0.9011893728656729</v>
       </c>
       <c r="E21" t="n" s="61">
-        <v>0.338898432516846</v>
+        <v>0.35665950186032025</v>
       </c>
       <c r="F21" t="n" s="62">
-        <v>8.202030046476493</v>
+        <v>6.652642006371257</v>
       </c>
       <c r="G21" t="n" s="63">
-        <v>0.020505722122086022</v>
+        <v>0.025280778714417487</v>
       </c>
       <c r="H21" t="n" s="64">
-        <v>0.018879866948662293</v>
+        <v>0.018446500098332083</v>
       </c>
       <c r="I21" t="n" s="65">
-        <v>0.327932749341343</v>
+        <v>0.33159983833163564</v>
       </c>
     </row>
     <row r="22">
@@ -2868,28 +2856,28 @@
         <v>29</v>
       </c>
       <c r="B22" t="n" s="58">
-        <v>0.8903242592307481</v>
+        <v>0.86585845284154</v>
       </c>
       <c r="C22" t="n" s="59">
-        <v>0.8888388991572912</v>
+        <v>0.8649368658638671</v>
       </c>
       <c r="D22" t="n" s="60">
-        <v>0.9258415572897261</v>
+        <v>0.8963089239184691</v>
       </c>
       <c r="E22" t="n" s="61">
-        <v>0.333220888055978</v>
+        <v>0.34796588011516066</v>
       </c>
       <c r="F22" t="n" s="62">
-        <v>7.995952652672846</v>
+        <v>6.403944876564758</v>
       </c>
       <c r="G22" t="n" s="63">
-        <v>0.021153506527994966</v>
+        <v>0.02632631208369367</v>
       </c>
       <c r="H22" t="n" s="64">
-        <v>0.018284818722939206</v>
+        <v>0.01970269818285172</v>
       </c>
       <c r="I22" t="n" s="65">
-        <v>0.3271580542528115</v>
+        <v>0.3274467281079734</v>
       </c>
     </row>
     <row r="23">
@@ -2897,678 +2885,642 @@
         <v>30</v>
       </c>
       <c r="B23" t="n" s="58">
-        <v>0.8951402665424065</v>
+        <v>0.8625943275912481</v>
       </c>
       <c r="C23" t="n" s="59">
-        <v>0.8945032630740329</v>
+        <v>0.8614709886815792</v>
       </c>
       <c r="D23" t="n" s="60">
-        <v>0.9265192648661302</v>
+        <v>0.8930134657698884</v>
       </c>
       <c r="E23" t="n" s="61">
-        <v>0.3463776251351581</v>
+        <v>0.34133626309347764</v>
       </c>
       <c r="F23" t="n" s="62">
-        <v>8.478966166524714</v>
+        <v>6.218704518878107</v>
       </c>
       <c r="G23" t="n" s="63">
-        <v>0.020391770841361425</v>
+        <v>0.02691966985143216</v>
       </c>
       <c r="H23" t="n" s="64">
-        <v>0.016808271828843358</v>
+        <v>0.01905618327079897</v>
       </c>
       <c r="I23" t="n" s="65">
-        <v>0.32942234223164757</v>
+        <v>0.3271580542528115</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="s" s="53">
+      <c r="A24" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="69">
         <v>31</v>
       </c>
-      <c r="B24" t="n" s="58">
-        <v>0.8939765974218459</v>
-      </c>
-      <c r="C24" t="n" s="59">
-        <v>0.892642086401982</v>
-      </c>
-      <c r="D24" t="n" s="60">
-        <v>0.9275089406737669</v>
-      </c>
-      <c r="E24" t="n" s="61">
-        <v>0.34196015491769727</v>
-      </c>
-      <c r="F24" t="n" s="62">
-        <v>8.314637053625285</v>
-      </c>
-      <c r="G24" t="n" s="63">
-        <v>0.020393682379078133</v>
-      </c>
-      <c r="H24" t="n" s="64">
-        <v>0.01915966992759093</v>
-      </c>
-      <c r="I24" t="n" s="65">
-        <v>0.3334182386522646</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="s" s="53">
+    </row>
+    <row r="27">
+      <c r="A27"/>
+      <c r="B27" t="s" s="83">
         <v>32</v>
       </c>
-      <c r="B25" t="n" s="58">
-        <v>0.8881757379417662</v>
-      </c>
-      <c r="C25" t="n" s="59">
-        <v>0.8872353450505451</v>
-      </c>
-      <c r="D25" t="n" s="60">
-        <v>0.9206065273408801</v>
-      </c>
-      <c r="E25" t="n" s="61">
-        <v>0.32964714560768893</v>
-      </c>
-      <c r="F25" t="n" s="62">
-        <v>7.868026957988171</v>
-      </c>
-      <c r="G25" t="n" s="63">
-        <v>0.021607294861527977</v>
-      </c>
-      <c r="H25" t="n" s="64">
-        <v>0.018327970674634042</v>
-      </c>
-      <c r="I25" t="n" s="65">
-        <v>0.3225587641870965</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="s" s="53">
+      <c r="C27" t="s" s="83">
         <v>33</v>
       </c>
-      <c r="B26" t="n" s="58">
-        <v>0.8908621643947299</v>
-      </c>
-      <c r="C26" t="n" s="59">
-        <v>0.8895684078976256</v>
-      </c>
-      <c r="D26" t="n" s="60">
-        <v>0.9251638752198017</v>
-      </c>
-      <c r="E26" t="n" s="61">
-        <v>0.33486811749995316</v>
-      </c>
-      <c r="F26" t="n" s="62">
-        <v>8.055379723883366</v>
-      </c>
-      <c r="G26" t="n" s="63">
-        <v>0.021029495326732407</v>
-      </c>
-      <c r="H26" t="n" s="64">
-        <v>0.01909713756144487</v>
-      </c>
-      <c r="I26" t="n" s="65">
-        <v>0.327932749341343</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="s" s="53">
+      <c r="D27" t="s" s="83">
         <v>34</v>
       </c>
-      <c r="B27" t="n" s="58">
-        <v>0.8921258801985992</v>
-      </c>
-      <c r="C27" t="n" s="59">
-        <v>0.8908517217855878</v>
-      </c>
-      <c r="D27" t="n" s="60">
-        <v>0.9273000363646062</v>
-      </c>
-      <c r="E27" t="n" s="61">
-        <v>0.33779901262590234</v>
-      </c>
-      <c r="F27" t="n" s="62">
-        <v>8.16184860044781</v>
-      </c>
-      <c r="G27" t="n" s="63">
-        <v>0.02080471864421595</v>
-      </c>
-      <c r="H27" t="n" s="64">
-        <v>0.019414059044150153</v>
-      </c>
-      <c r="I27" t="n" s="65">
-        <v>0.3274467281079734</v>
+      <c r="E27" t="s" s="83">
+        <v>35</v>
+      </c>
+      <c r="F27" t="s" s="83">
+        <v>36</v>
+      </c>
+      <c r="G27" t="s" s="83">
+        <v>9</v>
+      </c>
+      <c r="H27" t="s" s="83">
+        <v>10</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" t="s">
-        <v>1</v>
+      <c r="A28" t="s" s="79">
+        <v>18</v>
+      </c>
+      <c r="B28" t="n" s="84">
+        <v>54.0</v>
+      </c>
+      <c r="C28" t="n" s="85">
+        <v>0.547526252467735</v>
+      </c>
+      <c r="D28" t="n" s="86">
+        <v>0.5539769430472385</v>
+      </c>
+      <c r="E28" t="n" s="87">
+        <v>0.5021373680184988</v>
+      </c>
+      <c r="F28" t="n" s="88">
+        <v>0.46487153319750263</v>
+      </c>
+      <c r="G28" t="n" s="89">
+        <v>1.9259259259259258</v>
+      </c>
+      <c r="H28" t="n" s="90">
+        <v>0.9080738863598871</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" t="s">
-        <v>1</v>
+      <c r="A29" t="s" s="79">
+        <v>19</v>
+      </c>
+      <c r="B29" t="n" s="84">
+        <v>54.0</v>
+      </c>
+      <c r="C29" t="n" s="85">
+        <v>0.8078717595324646</v>
+      </c>
+      <c r="D29" t="n" s="86">
+        <v>0.7979759499212994</v>
+      </c>
+      <c r="E29" t="n" s="87">
+        <v>0.805052214777604</v>
+      </c>
+      <c r="F29" t="n" s="88">
+        <v>0.7542283608820896</v>
+      </c>
+      <c r="G29" t="n" s="89">
+        <v>2.0</v>
+      </c>
+      <c r="H29" t="n" s="90">
+        <v>1.0988845115895123</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" t="s" s="69">
-        <v>35</v>
+      <c r="A30" t="s" s="79">
+        <v>20</v>
+      </c>
+      <c r="B30" t="n" s="84">
+        <v>54.0</v>
+      </c>
+      <c r="C30" t="n" s="85">
+        <v>0.6693167174060122</v>
+      </c>
+      <c r="D30" t="n" s="86">
+        <v>0.6568680000091665</v>
+      </c>
+      <c r="E30" t="n" s="87">
+        <v>0.6496334750424634</v>
+      </c>
+      <c r="F30" t="n" s="88">
+        <v>0.5890236707690817</v>
+      </c>
+      <c r="G30" t="n" s="89">
+        <v>2.0185185185185186</v>
+      </c>
+      <c r="H30" t="n" s="90">
+        <v>1.072657443090119</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31"/>
-      <c r="B31" t="s" s="83">
-        <v>36</v>
-      </c>
-      <c r="C31" t="s" s="83">
-        <v>37</v>
-      </c>
-      <c r="D31" t="s" s="83">
-        <v>38</v>
-      </c>
-      <c r="E31" t="s" s="83">
-        <v>39</v>
-      </c>
-      <c r="F31" t="s" s="83">
-        <v>40</v>
-      </c>
-      <c r="G31" t="s" s="83">
-        <v>9</v>
-      </c>
-      <c r="H31" t="s" s="83">
-        <v>10</v>
+      <c r="A31" t="s" s="79">
+        <v>21</v>
+      </c>
+      <c r="B31" t="n" s="84">
+        <v>54.0</v>
+      </c>
+      <c r="C31" t="n" s="85">
+        <v>0.6512313541057811</v>
+      </c>
+      <c r="D31" t="n" s="86">
+        <v>0.6414682500984632</v>
+      </c>
+      <c r="E31" t="n" s="87">
+        <v>0.6248510324460582</v>
+      </c>
+      <c r="F31" t="n" s="88">
+        <v>0.5686181046488138</v>
+      </c>
+      <c r="G31" t="n" s="89">
+        <v>1.962962962962963</v>
+      </c>
+      <c r="H31" t="n" s="90">
+        <v>1.0633333661928321</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="79">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B32" t="n" s="84">
         <v>54.0</v>
       </c>
       <c r="C32" t="n" s="85">
-        <v>0.82292042696293</v>
+        <v>0.4311803549041913</v>
       </c>
       <c r="D32" t="n" s="86">
-        <v>0.8176977301358088</v>
+        <v>0.44565601456571785</v>
       </c>
       <c r="E32" t="n" s="87">
-        <v>0.824027835571693</v>
+        <v>0.3747031636115695</v>
       </c>
       <c r="F32" t="n" s="88">
-        <v>0.7839211782656321</v>
+        <v>0.32729706972606015</v>
       </c>
       <c r="G32" t="n" s="89">
-        <v>2.0</v>
+        <v>3.6296296296296298</v>
       </c>
       <c r="H32" t="n" s="90">
-        <v>1.0988845115895123</v>
+        <v>0.9961491192511118</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="79">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B33" t="n" s="84">
         <v>54.0</v>
       </c>
       <c r="C33" t="n" s="85">
-        <v>0.6598598599651666</v>
+        <v>0.5073183591910507</v>
       </c>
       <c r="D33" t="n" s="86">
-        <v>0.64917682469946</v>
+        <v>0.5148172827049007</v>
       </c>
       <c r="E33" t="n" s="87">
-        <v>0.6463774329902706</v>
+        <v>0.4564734101252419</v>
       </c>
       <c r="F33" t="n" s="88">
-        <v>0.5953999908424951</v>
+        <v>0.42154643363559097</v>
       </c>
       <c r="G33" t="n" s="89">
-        <v>2.0185185185185186</v>
+        <v>2.0925925925925926</v>
       </c>
       <c r="H33" t="n" s="90">
-        <v>1.072657443090119</v>
+        <v>0.895871421841548</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="79">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B34" t="n" s="84">
         <v>54.0</v>
       </c>
       <c r="C34" t="n" s="85">
-        <v>0.5641825647244137</v>
+        <v>0.6504354790999467</v>
       </c>
       <c r="D34" t="n" s="86">
-        <v>0.574518423937009</v>
+        <v>0.666035590115553</v>
       </c>
       <c r="E34" t="n" s="87">
-        <v>0.5407526623813721</v>
+        <v>0.647076384522193</v>
       </c>
       <c r="F34" t="n" s="88">
-        <v>0.500216461654621</v>
+        <v>0.5768395424095939</v>
       </c>
       <c r="G34" t="n" s="89">
-        <v>1.9259259259259258</v>
+        <v>2.6296296296296298</v>
       </c>
       <c r="H34" t="n" s="90">
-        <v>0.9080738863598871</v>
+        <v>0.9575183390784525</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="79">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B35" t="n" s="84">
         <v>54.0</v>
       </c>
       <c r="C35" t="n" s="85">
-        <v>0.6149911214201461</v>
+        <v>0.6478248671196717</v>
       </c>
       <c r="D35" t="n" s="86">
-        <v>0.5995326594996612</v>
+        <v>0.6590146275219692</v>
       </c>
       <c r="E35" t="n" s="87">
-        <v>0.5846367067752334</v>
+        <v>0.6392934788187836</v>
       </c>
       <c r="F35" t="n" s="88">
-        <v>0.5452227628354612</v>
+        <v>0.5771309219890822</v>
       </c>
       <c r="G35" t="n" s="89">
-        <v>1.962962962962963</v>
+        <v>2.2037037037037037</v>
       </c>
       <c r="H35" t="n" s="90">
-        <v>1.0633333661928321</v>
+        <v>0.918974605550339</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="79">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B36" t="n" s="84">
         <v>54.0</v>
       </c>
       <c r="C36" t="n" s="85">
-        <v>0.6178552900221305</v>
+        <v>0.6623736781454074</v>
       </c>
       <c r="D36" t="n" s="86">
-        <v>0.6201150110259133</v>
+        <v>0.6521063536955296</v>
       </c>
       <c r="E36" t="n" s="87">
-        <v>0.6037013929866397</v>
+        <v>0.6272933212598586</v>
       </c>
       <c r="F36" t="n" s="88">
-        <v>0.5586343211016647</v>
+        <v>0.574610035482027</v>
       </c>
       <c r="G36" t="n" s="89">
-        <v>2.2037037037037037</v>
+        <v>2.5185185185185186</v>
       </c>
       <c r="H36" t="n" s="90">
-        <v>0.918974605550339</v>
+        <v>1.144976571248162</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="79">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B37" t="n" s="84">
         <v>54.0</v>
       </c>
       <c r="C37" t="n" s="85">
-        <v>0.4852217637492406</v>
+        <v>0.7842629056634212</v>
       </c>
       <c r="D37" t="n" s="86">
-        <v>0.49041087299837327</v>
+        <v>0.7679099133581635</v>
       </c>
       <c r="E37" t="n" s="87">
-        <v>0.44771337162195607</v>
+        <v>0.7585743654754578</v>
       </c>
       <c r="F37" t="n" s="88">
-        <v>0.41528990782299713</v>
+        <v>0.7149184835346493</v>
       </c>
       <c r="G37" t="n" s="89">
-        <v>2.0925925925925926</v>
+        <v>1.962962962962963</v>
       </c>
       <c r="H37" t="n" s="90">
-        <v>0.895871421841548</v>
+        <v>1.258375157231827</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="79">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B38" t="n" s="84">
         <v>54.0</v>
       </c>
       <c r="C38" t="n" s="85">
-        <v>0.6807004099711018</v>
+        <v>0.5571627703041124</v>
       </c>
       <c r="D38" t="n" s="86">
-        <v>0.6760738376973755</v>
+        <v>0.5454962107952943</v>
       </c>
       <c r="E38" t="n" s="87">
-        <v>0.6629045743772639</v>
+        <v>0.4861754492696287</v>
       </c>
       <c r="F38" t="n" s="88">
-        <v>0.6145832595782957</v>
+        <v>0.4508839371467103</v>
       </c>
       <c r="G38" t="n" s="89">
-        <v>2.5185185185185186</v>
+        <v>3.1481481481481484</v>
       </c>
       <c r="H38" t="n" s="90">
-        <v>1.144976571248162</v>
+        <v>1.1559102825961884</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="79">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B39" t="n" s="84">
         <v>54.0</v>
       </c>
       <c r="C39" t="n" s="85">
-        <v>0.7760122788298598</v>
+        <v>0.6012115095486167</v>
       </c>
       <c r="D39" t="n" s="86">
-        <v>0.7598830097238879</v>
+        <v>0.6155893141643729</v>
       </c>
       <c r="E39" t="n" s="87">
-        <v>0.7595205249502774</v>
+        <v>0.5715731671075777</v>
       </c>
       <c r="F39" t="n" s="88">
-        <v>0.7204114976525547</v>
+        <v>0.5303814565050938</v>
       </c>
       <c r="G39" t="n" s="89">
-        <v>1.962962962962963</v>
+        <v>2.3518518518518516</v>
       </c>
       <c r="H39" t="n" s="90">
-        <v>1.258375157231827</v>
+        <v>0.8502476311297721</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="79">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B40" t="n" s="84">
         <v>54.0</v>
       </c>
       <c r="C40" t="n" s="85">
-        <v>0.6066181152568579</v>
+        <v>0.6603304677910279</v>
       </c>
       <c r="D40" t="n" s="86">
-        <v>0.6123646647821042</v>
+        <v>0.6690411947292203</v>
       </c>
       <c r="E40" t="n" s="87">
-        <v>0.5934232126497826</v>
+        <v>0.6379666280143194</v>
       </c>
       <c r="F40" t="n" s="88">
-        <v>0.5434325582180218</v>
+        <v>0.5926934054744879</v>
       </c>
       <c r="G40" t="n" s="89">
-        <v>2.6296296296296298</v>
+        <v>3.111111111111111</v>
       </c>
       <c r="H40" t="n" s="90">
-        <v>0.9575183390784525</v>
+        <v>0.9042179288717305</v>
       </c>
     </row>
     <row r="41">
-      <c r="A41" t="s" s="79">
-        <v>27</v>
-      </c>
-      <c r="B41" t="n" s="84">
-        <v>54.0</v>
-      </c>
-      <c r="C41" t="n" s="85">
-        <v>0.4193636792109018</v>
-      </c>
-      <c r="D41" t="n" s="86">
-        <v>0.4238806950053136</v>
-      </c>
-      <c r="E41" t="n" s="87">
-        <v>0.38460805543428567</v>
-      </c>
-      <c r="F41" t="n" s="88">
-        <v>0.33584442105715406</v>
-      </c>
-      <c r="G41" t="n" s="89">
-        <v>3.6296296296296298</v>
-      </c>
-      <c r="H41" t="n" s="90">
-        <v>0.9961491192511118</v>
+      <c r="A41" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="42">
-      <c r="A42" t="s" s="79">
-        <v>28</v>
-      </c>
-      <c r="B42" t="n" s="84">
-        <v>54.0</v>
-      </c>
-      <c r="C42" t="n" s="85">
-        <v>0.5857111328128448</v>
-      </c>
-      <c r="D42" t="n" s="86">
-        <v>0.5831787566112188</v>
-      </c>
-      <c r="E42" t="n" s="87">
-        <v>0.5459645705225935</v>
-      </c>
-      <c r="F42" t="n" s="88">
-        <v>0.505368221860125</v>
-      </c>
-      <c r="G42" t="n" s="89">
-        <v>3.1481481481481484</v>
-      </c>
-      <c r="H42" t="n" s="90">
-        <v>1.1559102825961884</v>
+      <c r="A42" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="43">
-      <c r="A43" t="s" s="79">
-        <v>29</v>
-      </c>
-      <c r="B43" t="n" s="84">
-        <v>54.0</v>
-      </c>
-      <c r="C43" t="n" s="85">
-        <v>0.6441746224821854</v>
-      </c>
-      <c r="D43" t="n" s="86">
-        <v>0.6485910180870355</v>
-      </c>
-      <c r="E43" t="n" s="87">
-        <v>0.6282155076974217</v>
-      </c>
-      <c r="F43" t="n" s="88">
-        <v>0.5917209853116001</v>
-      </c>
-      <c r="G43" t="n" s="89">
-        <v>2.5555555555555554</v>
-      </c>
-      <c r="H43" t="n" s="90">
-        <v>0.8614745293854451</v>
+      <c r="A43" t="s" s="94">
+        <v>37</v>
       </c>
     </row>
     <row r="44">
-      <c r="A44" t="s" s="79">
-        <v>30</v>
-      </c>
-      <c r="B44" t="n" s="84">
-        <v>54.0</v>
-      </c>
-      <c r="C44" t="n" s="85">
-        <v>0.4798973654379433</v>
-      </c>
-      <c r="D44" t="n" s="86">
-        <v>0.49700930315312336</v>
-      </c>
-      <c r="E44" t="n" s="87">
-        <v>0.4659426538392122</v>
-      </c>
-      <c r="F44" t="n" s="88">
-        <v>0.4264147933479107</v>
-      </c>
-      <c r="G44" t="n" s="89">
-        <v>2.7037037037037037</v>
-      </c>
-      <c r="H44" t="n" s="90">
-        <v>0.6903548343746962</v>
+      <c r="A44"/>
+      <c r="B44" t="s" s="108">
+        <v>38</v>
+      </c>
+      <c r="C44" t="s" s="108">
+        <v>39</v>
+      </c>
+      <c r="D44" t="s" s="108">
+        <v>40</v>
+      </c>
+      <c r="E44" t="s" s="108">
+        <v>41</v>
+      </c>
+      <c r="F44" t="s" s="108">
+        <v>42</v>
+      </c>
+      <c r="G44" t="s" s="108">
+        <v>43</v>
       </c>
     </row>
     <row r="45">
-      <c r="A45" t="s" s="79">
-        <v>31</v>
-      </c>
-      <c r="B45" t="n" s="84">
-        <v>54.0</v>
-      </c>
-      <c r="C45" t="n" s="85">
-        <v>0.5375874655732871</v>
-      </c>
-      <c r="D45" t="n" s="86">
-        <v>0.5479039670201865</v>
-      </c>
-      <c r="E45" t="n" s="87">
-        <v>0.5126808099248441</v>
-      </c>
-      <c r="F45" t="n" s="88">
-        <v>0.4680972427631414</v>
-      </c>
-      <c r="G45" t="n" s="89">
-        <v>3.8333333333333335</v>
-      </c>
-      <c r="H45" t="n" s="90">
-        <v>0.946692355041668</v>
+      <c r="A45" t="s" s="104">
+        <v>18</v>
+      </c>
+      <c r="B45" t="n" s="109">
+        <v>0.3148148148148148</v>
+      </c>
+      <c r="C45" t="n" s="110">
+        <v>0.5370370370370371</v>
+      </c>
+      <c r="D45" t="n" s="111">
+        <v>0.09259259259259259</v>
+      </c>
+      <c r="E45" t="n" s="112">
+        <v>0.018518518518518517</v>
+      </c>
+      <c r="F45" t="n" s="113">
+        <v>0.037037037037037035</v>
+      </c>
+      <c r="G45" t="n" s="114">
+        <v>0.0</v>
       </c>
     </row>
     <row r="46">
-      <c r="A46" t="s" s="79">
-        <v>32</v>
-      </c>
-      <c r="B46" t="n" s="84">
-        <v>54.0</v>
-      </c>
-      <c r="C46" t="n" s="85">
-        <v>0.6972858720027793</v>
-      </c>
-      <c r="D46" t="n" s="86">
-        <v>0.6897649053345822</v>
-      </c>
-      <c r="E46" t="n" s="87">
-        <v>0.6812131157889725</v>
-      </c>
-      <c r="F46" t="n" s="88">
-        <v>0.6391289389520262</v>
-      </c>
-      <c r="G46" t="n" s="89">
-        <v>2.7777777777777777</v>
-      </c>
-      <c r="H46" t="n" s="90">
-        <v>1.0580627842174168</v>
+      <c r="A46" t="s" s="104">
+        <v>19</v>
+      </c>
+      <c r="B46" t="n" s="109">
+        <v>0.46296296296296297</v>
+      </c>
+      <c r="C46" t="n" s="110">
+        <v>0.18518518518518517</v>
+      </c>
+      <c r="D46" t="n" s="111">
+        <v>0.25925925925925924</v>
+      </c>
+      <c r="E46" t="n" s="112">
+        <v>0.07407407407407407</v>
+      </c>
+      <c r="F46" t="n" s="113">
+        <v>0.018518518518518517</v>
+      </c>
+      <c r="G46" t="n" s="114">
+        <v>0.0</v>
       </c>
     </row>
     <row r="47">
-      <c r="A47" t="s" s="79">
-        <v>33</v>
-      </c>
-      <c r="B47" t="n" s="84">
-        <v>54.0</v>
-      </c>
-      <c r="C47" t="n" s="85">
-        <v>0.6261942021546548</v>
-      </c>
-      <c r="D47" t="n" s="86">
-        <v>0.6296129186916686</v>
-      </c>
-      <c r="E47" t="n" s="87">
-        <v>0.6065354170297682</v>
-      </c>
-      <c r="F47" t="n" s="88">
-        <v>0.5689082866853941</v>
-      </c>
-      <c r="G47" t="n" s="89">
-        <v>3.111111111111111</v>
-      </c>
-      <c r="H47" t="n" s="90">
-        <v>0.9042179288717305</v>
+      <c r="A47" t="s" s="104">
+        <v>20</v>
+      </c>
+      <c r="B47" t="n" s="109">
+        <v>0.4444444444444444</v>
+      </c>
+      <c r="C47" t="n" s="110">
+        <v>0.18518518518518517</v>
+      </c>
+      <c r="D47" t="n" s="111">
+        <v>0.2962962962962963</v>
+      </c>
+      <c r="E47" t="n" s="112">
+        <v>0.05555555555555555</v>
+      </c>
+      <c r="F47" t="n" s="113">
+        <v>0.018518518518518517</v>
+      </c>
+      <c r="G47" t="n" s="114">
+        <v>0.0</v>
       </c>
     </row>
     <row r="48">
-      <c r="A48" t="s" s="79">
-        <v>34</v>
-      </c>
-      <c r="B48" t="n" s="84">
-        <v>54.0</v>
-      </c>
-      <c r="C48" t="n" s="85">
-        <v>0.5880676361829957</v>
-      </c>
-      <c r="D48" t="n" s="86">
-        <v>0.5958454194394524</v>
-      </c>
-      <c r="E48" t="n" s="87">
-        <v>0.5634469723449406</v>
-      </c>
-      <c r="F48" t="n" s="88">
-        <v>0.5306741845215084</v>
-      </c>
-      <c r="G48" t="n" s="89">
-        <v>2.3518518518518516</v>
-      </c>
-      <c r="H48" t="n" s="90">
-        <v>0.8502476311297721</v>
+      <c r="A48" t="s" s="104">
+        <v>21</v>
+      </c>
+      <c r="B48" t="n" s="109">
+        <v>0.4074074074074074</v>
+      </c>
+      <c r="C48" t="n" s="110">
+        <v>0.37037037037037035</v>
+      </c>
+      <c r="D48" t="n" s="111">
+        <v>0.09259259259259259</v>
+      </c>
+      <c r="E48" t="n" s="112">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="F48" t="n" s="113">
+        <v>0.018518518518518517</v>
+      </c>
+      <c r="G48" t="n" s="114">
+        <v>0.0</v>
       </c>
     </row>
     <row r="49">
-      <c r="A49" t="s">
-        <v>1</v>
+      <c r="A49" t="s" s="104">
+        <v>22</v>
+      </c>
+      <c r="B49" t="n" s="109">
+        <v>0.05555555555555555</v>
+      </c>
+      <c r="C49" t="n" s="110">
+        <v>0.07407407407407407</v>
+      </c>
+      <c r="D49" t="n" s="111">
+        <v>0.18518518518518517</v>
+      </c>
+      <c r="E49" t="n" s="112">
+        <v>0.5555555555555556</v>
+      </c>
+      <c r="F49" t="n" s="113">
+        <v>0.12962962962962962</v>
+      </c>
+      <c r="G49" t="n" s="114">
+        <v>0.0</v>
       </c>
     </row>
     <row r="50">
-      <c r="A50" t="s">
-        <v>1</v>
+      <c r="A50" t="s" s="104">
+        <v>23</v>
+      </c>
+      <c r="B50" t="n" s="109">
+        <v>0.2777777777777778</v>
+      </c>
+      <c r="C50" t="n" s="110">
+        <v>0.42592592592592593</v>
+      </c>
+      <c r="D50" t="n" s="111">
+        <v>0.2222222222222222</v>
+      </c>
+      <c r="E50" t="n" s="112">
+        <v>0.07407407407407407</v>
+      </c>
+      <c r="F50" t="n" s="113">
+        <v>0.0</v>
+      </c>
+      <c r="G50" t="n" s="114">
+        <v>0.0</v>
       </c>
     </row>
     <row r="51">
-      <c r="A51" t="s" s="94">
-        <v>41</v>
+      <c r="A51" t="s" s="104">
+        <v>24</v>
+      </c>
+      <c r="B51" t="n" s="109">
+        <v>0.09259259259259259</v>
+      </c>
+      <c r="C51" t="n" s="110">
+        <v>0.37037037037037035</v>
+      </c>
+      <c r="D51" t="n" s="111">
+        <v>0.4074074074074074</v>
+      </c>
+      <c r="E51" t="n" s="112">
+        <v>0.07407407407407407</v>
+      </c>
+      <c r="F51" t="n" s="113">
+        <v>0.05555555555555555</v>
+      </c>
+      <c r="G51" t="n" s="114">
+        <v>0.0</v>
       </c>
     </row>
     <row r="52">
-      <c r="A52"/>
-      <c r="B52" t="s" s="108">
-        <v>42</v>
-      </c>
-      <c r="C52" t="s" s="108">
-        <v>43</v>
-      </c>
-      <c r="D52" t="s" s="108">
-        <v>44</v>
-      </c>
-      <c r="E52" t="s" s="108">
-        <v>45</v>
-      </c>
-      <c r="F52" t="s" s="108">
-        <v>46</v>
-      </c>
-      <c r="G52" t="s" s="108">
-        <v>47</v>
+      <c r="A52" t="s" s="104">
+        <v>25</v>
+      </c>
+      <c r="B52" t="n" s="109">
+        <v>0.18518518518518517</v>
+      </c>
+      <c r="C52" t="n" s="110">
+        <v>0.5370370370370371</v>
+      </c>
+      <c r="D52" t="n" s="111">
+        <v>0.2037037037037037</v>
+      </c>
+      <c r="E52" t="n" s="112">
+        <v>0.037037037037037035</v>
+      </c>
+      <c r="F52" t="n" s="113">
+        <v>0.037037037037037035</v>
+      </c>
+      <c r="G52" t="n" s="114">
+        <v>0.0</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="104">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="B53" t="n" s="109">
-        <v>0.46296296296296297</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="C53" t="n" s="110">
-        <v>0.18518518518518517</v>
+        <v>0.3148148148148148</v>
       </c>
       <c r="D53" t="n" s="111">
-        <v>0.25925925925925924</v>
+        <v>0.2037037037037037</v>
       </c>
       <c r="E53" t="n" s="112">
-        <v>0.07407407407407407</v>
+        <v>0.24074074074074073</v>
       </c>
       <c r="F53" t="n" s="113">
         <v>0.018518518518518517</v>
@@ -3579,22 +3531,22 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="104">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="B54" t="n" s="109">
-        <v>0.4444444444444444</v>
+        <v>0.5</v>
       </c>
       <c r="C54" t="n" s="110">
-        <v>0.18518518518518517</v>
+        <v>0.25925925925925924</v>
       </c>
       <c r="D54" t="n" s="111">
-        <v>0.2962962962962963</v>
+        <v>0.09259259259259259</v>
       </c>
       <c r="E54" t="n" s="112">
-        <v>0.05555555555555555</v>
+        <v>0.07407407407407407</v>
       </c>
       <c r="F54" t="n" s="113">
-        <v>0.018518518518518517</v>
+        <v>0.07407407407407407</v>
       </c>
       <c r="G54" t="n" s="114">
         <v>0.0</v>
@@ -3602,22 +3554,22 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="104">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="B55" t="n" s="109">
-        <v>0.3148148148148148</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="C55" t="n" s="110">
-        <v>0.5370370370370371</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="D55" t="n" s="111">
+        <v>0.2777777777777778</v>
+      </c>
+      <c r="E55" t="n" s="112">
+        <v>0.35185185185185186</v>
+      </c>
+      <c r="F55" t="n" s="113">
         <v>0.09259259259259259</v>
-      </c>
-      <c r="E55" t="n" s="112">
-        <v>0.018518518518518517</v>
-      </c>
-      <c r="F55" t="n" s="113">
-        <v>0.037037037037037035</v>
       </c>
       <c r="G55" t="n" s="114">
         <v>0.0</v>
@@ -3625,22 +3577,22 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="104">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="B56" t="n" s="109">
-        <v>0.4074074074074074</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="C56" t="n" s="110">
+        <v>0.3888888888888889</v>
+      </c>
+      <c r="D56" t="n" s="111">
         <v>0.37037037037037035</v>
       </c>
-      <c r="D56" t="n" s="111">
-        <v>0.09259259259259259</v>
-      </c>
       <c r="E56" t="n" s="112">
-        <v>0.1111111111111111</v>
+        <v>0.07407407407407407</v>
       </c>
       <c r="F56" t="n" s="113">
-        <v>0.018518518518518517</v>
+        <v>0.0</v>
       </c>
       <c r="G56" t="n" s="114">
         <v>0.0</v>
@@ -3648,300 +3600,24 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="104">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="B57" t="n" s="109">
+        <v>0.037037037037037035</v>
+      </c>
+      <c r="C57" t="n" s="110">
         <v>0.18518518518518517</v>
       </c>
-      <c r="C57" t="n" s="110">
-        <v>0.5370370370370371</v>
-      </c>
       <c r="D57" t="n" s="111">
-        <v>0.2037037037037037</v>
+        <v>0.46296296296296297</v>
       </c>
       <c r="E57" t="n" s="112">
-        <v>0.037037037037037035</v>
+        <v>0.25925925925925924</v>
       </c>
       <c r="F57" t="n" s="113">
-        <v>0.037037037037037035</v>
+        <v>0.05555555555555555</v>
       </c>
       <c r="G57" t="n" s="114">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="s" s="104">
-        <v>23</v>
-      </c>
-      <c r="B58" t="n" s="109">
-        <v>0.2777777777777778</v>
-      </c>
-      <c r="C58" t="n" s="110">
-        <v>0.42592592592592593</v>
-      </c>
-      <c r="D58" t="n" s="111">
-        <v>0.2222222222222222</v>
-      </c>
-      <c r="E58" t="n" s="112">
-        <v>0.07407407407407407</v>
-      </c>
-      <c r="F58" t="n" s="113">
-        <v>0.0</v>
-      </c>
-      <c r="G58" t="n" s="114">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="s" s="104">
-        <v>24</v>
-      </c>
-      <c r="B59" t="n" s="109">
-        <v>0.2222222222222222</v>
-      </c>
-      <c r="C59" t="n" s="110">
-        <v>0.3148148148148148</v>
-      </c>
-      <c r="D59" t="n" s="111">
-        <v>0.2037037037037037</v>
-      </c>
-      <c r="E59" t="n" s="112">
-        <v>0.24074074074074073</v>
-      </c>
-      <c r="F59" t="n" s="113">
-        <v>0.018518518518518517</v>
-      </c>
-      <c r="G59" t="n" s="114">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="s" s="104">
-        <v>25</v>
-      </c>
-      <c r="B60" t="n" s="109">
-        <v>0.5</v>
-      </c>
-      <c r="C60" t="n" s="110">
-        <v>0.25925925925925924</v>
-      </c>
-      <c r="D60" t="n" s="111">
-        <v>0.09259259259259259</v>
-      </c>
-      <c r="E60" t="n" s="112">
-        <v>0.07407407407407407</v>
-      </c>
-      <c r="F60" t="n" s="113">
-        <v>0.07407407407407407</v>
-      </c>
-      <c r="G60" t="n" s="114">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="s" s="104">
-        <v>26</v>
-      </c>
-      <c r="B61" t="n" s="109">
-        <v>0.09259259259259259</v>
-      </c>
-      <c r="C61" t="n" s="110">
-        <v>0.37037037037037035</v>
-      </c>
-      <c r="D61" t="n" s="111">
-        <v>0.4074074074074074</v>
-      </c>
-      <c r="E61" t="n" s="112">
-        <v>0.07407407407407407</v>
-      </c>
-      <c r="F61" t="n" s="113">
-        <v>0.05555555555555555</v>
-      </c>
-      <c r="G61" t="n" s="114">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="s" s="104">
-        <v>27</v>
-      </c>
-      <c r="B62" t="n" s="109">
-        <v>0.05555555555555555</v>
-      </c>
-      <c r="C62" t="n" s="110">
-        <v>0.07407407407407407</v>
-      </c>
-      <c r="D62" t="n" s="111">
-        <v>0.18518518518518517</v>
-      </c>
-      <c r="E62" t="n" s="112">
-        <v>0.5555555555555556</v>
-      </c>
-      <c r="F62" t="n" s="113">
-        <v>0.12962962962962962</v>
-      </c>
-      <c r="G62" t="n" s="114">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="s" s="104">
-        <v>28</v>
-      </c>
-      <c r="B63" t="n" s="109">
-        <v>0.1111111111111111</v>
-      </c>
-      <c r="C63" t="n" s="110">
-        <v>0.16666666666666666</v>
-      </c>
-      <c r="D63" t="n" s="111">
-        <v>0.2777777777777778</v>
-      </c>
-      <c r="E63" t="n" s="112">
-        <v>0.35185185185185186</v>
-      </c>
-      <c r="F63" t="n" s="113">
-        <v>0.09259259259259259</v>
-      </c>
-      <c r="G63" t="n" s="114">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="s" s="104">
-        <v>29</v>
-      </c>
-      <c r="B64" t="n" s="109">
-        <v>0.037037037037037035</v>
-      </c>
-      <c r="C64" t="n" s="110">
-        <v>0.5370370370370371</v>
-      </c>
-      <c r="D64" t="n" s="111">
-        <v>0.2962962962962963</v>
-      </c>
-      <c r="E64" t="n" s="112">
-        <v>0.09259259259259259</v>
-      </c>
-      <c r="F64" t="n" s="113">
-        <v>0.037037037037037035</v>
-      </c>
-      <c r="G64" t="n" s="114">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="s" s="104">
-        <v>30</v>
-      </c>
-      <c r="B65" t="n" s="109">
-        <v>0.018518518518518517</v>
-      </c>
-      <c r="C65" t="n" s="110">
-        <v>0.37037037037037035</v>
-      </c>
-      <c r="D65" t="n" s="111">
-        <v>0.5</v>
-      </c>
-      <c r="E65" t="n" s="112">
-        <v>0.1111111111111111</v>
-      </c>
-      <c r="F65" t="n" s="113">
-        <v>0.0</v>
-      </c>
-      <c r="G65" t="n" s="114">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="s" s="104">
-        <v>31</v>
-      </c>
-      <c r="B66" t="n" s="109">
-        <v>0.0</v>
-      </c>
-      <c r="C66" t="n" s="110">
-        <v>0.07407407407407407</v>
-      </c>
-      <c r="D66" t="n" s="111">
-        <v>0.3148148148148148</v>
-      </c>
-      <c r="E66" t="n" s="112">
-        <v>0.3148148148148148</v>
-      </c>
-      <c r="F66" t="n" s="113">
-        <v>0.2962962962962963</v>
-      </c>
-      <c r="G66" t="n" s="114">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="s" s="104">
-        <v>32</v>
-      </c>
-      <c r="B67" t="n" s="109">
-        <v>0.07407407407407407</v>
-      </c>
-      <c r="C67" t="n" s="110">
-        <v>0.3888888888888889</v>
-      </c>
-      <c r="D67" t="n" s="111">
-        <v>0.2962962962962963</v>
-      </c>
-      <c r="E67" t="n" s="112">
-        <v>0.16666666666666666</v>
-      </c>
-      <c r="F67" t="n" s="113">
-        <v>0.07407407407407407</v>
-      </c>
-      <c r="G67" t="n" s="114">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="s" s="104">
-        <v>33</v>
-      </c>
-      <c r="B68" t="n" s="109">
-        <v>0.037037037037037035</v>
-      </c>
-      <c r="C68" t="n" s="110">
-        <v>0.18518518518518517</v>
-      </c>
-      <c r="D68" t="n" s="111">
-        <v>0.46296296296296297</v>
-      </c>
-      <c r="E68" t="n" s="112">
-        <v>0.25925925925925924</v>
-      </c>
-      <c r="F68" t="n" s="113">
-        <v>0.05555555555555555</v>
-      </c>
-      <c r="G68" t="n" s="114">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="s" s="104">
-        <v>34</v>
-      </c>
-      <c r="B69" t="n" s="109">
-        <v>0.16666666666666666</v>
-      </c>
-      <c r="C69" t="n" s="110">
-        <v>0.3888888888888889</v>
-      </c>
-      <c r="D69" t="n" s="111">
-        <v>0.37037037037037035</v>
-      </c>
-      <c r="E69" t="n" s="112">
-        <v>0.07407407407407407</v>
-      </c>
-      <c r="F69" t="n" s="113">
-        <v>0.0</v>
-      </c>
-      <c r="G69" t="n" s="114">
         <v>0.0</v>
       </c>
     </row>
@@ -3972,7 +3648,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="116">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2">
@@ -4027,7 +3703,7 @@
         <v>0.8025269733442075</v>
       </c>
       <c r="C6" t="n" s="147">
-        <v>0.790547768136892</v>
+        <v>0.7905477681368921</v>
       </c>
       <c r="D6" t="n" s="148">
         <v>0.5039671927069905</v>
@@ -4095,28 +3771,28 @@
         <v>18</v>
       </c>
       <c r="B11" t="n" s="172">
-        <v>0.7099603010013629</v>
+        <v>0.8251250394268463</v>
       </c>
       <c r="C11" t="n" s="173">
-        <v>0.7025936461898236</v>
+        <v>0.8253425893799464</v>
       </c>
       <c r="D11" t="n" s="174">
-        <v>0.6646427152553136</v>
+        <v>0.779684860423004</v>
       </c>
       <c r="E11" t="n" s="175">
-        <v>0.440549315184587</v>
+        <v>0.6116753306106898</v>
       </c>
       <c r="F11" t="n" s="176">
-        <v>2.3624029452923625</v>
+        <v>4.72549424871173</v>
       </c>
       <c r="G11" t="n" s="177">
-        <v>0.0671416046807915</v>
+        <v>0.04184645906281446</v>
       </c>
       <c r="H11" t="n" s="178">
-        <v>0.04304943930131507</v>
+        <v>0.012314069826025278</v>
       </c>
       <c r="I11" t="n" s="179">
-        <v>0.40821635000067164</v>
+        <v>0.6623012394379787</v>
       </c>
     </row>
     <row r="12">
@@ -4124,28 +3800,28 @@
         <v>19</v>
       </c>
       <c r="B12" t="n" s="172">
-        <v>0.687140804597701</v>
+        <v>0.7099603010013629</v>
       </c>
       <c r="C12" t="n" s="173">
-        <v>0.6862517341833037</v>
+        <v>0.7025936461898236</v>
       </c>
       <c r="D12" t="n" s="174">
-        <v>0.625165478730842</v>
+        <v>0.6646427152553136</v>
       </c>
       <c r="E12" t="n" s="175">
-        <v>0.42166095032753503</v>
+        <v>0.440549315184587</v>
       </c>
       <c r="F12" t="n" s="176">
-        <v>2.187268612933905</v>
+        <v>2.3624029452923625</v>
       </c>
       <c r="G12" t="n" s="177">
-        <v>0.07268453948148583</v>
+        <v>0.0671416046807915</v>
       </c>
       <c r="H12" t="n" s="178">
-        <v>0.022316952178278695</v>
+        <v>0.04304943930131507</v>
       </c>
       <c r="I12" t="n" s="179">
-        <v>0.4844220365734029</v>
+        <v>0.40821635000067164</v>
       </c>
     </row>
     <row r="13">
@@ -4153,28 +3829,28 @@
         <v>20</v>
       </c>
       <c r="B13" t="n" s="172">
-        <v>0.8251250394268463</v>
+        <v>0.687140804597701</v>
       </c>
       <c r="C13" t="n" s="173">
-        <v>0.8253425893799464</v>
+        <v>0.6862517341833037</v>
       </c>
       <c r="D13" t="n" s="174">
-        <v>0.779684860423004</v>
+        <v>0.625165478730842</v>
       </c>
       <c r="E13" t="n" s="175">
-        <v>0.6116753306106898</v>
+        <v>0.42166095032753503</v>
       </c>
       <c r="F13" t="n" s="176">
-        <v>4.72549424871173</v>
+        <v>2.187268612933905</v>
       </c>
       <c r="G13" t="n" s="177">
-        <v>0.04184645906281446</v>
+        <v>0.07268453948148583</v>
       </c>
       <c r="H13" t="n" s="178">
-        <v>0.012314069826025278</v>
+        <v>0.022316952178278695</v>
       </c>
       <c r="I13" t="n" s="179">
-        <v>0.6623012394379787</v>
+        <v>0.4844220365734029</v>
       </c>
     </row>
     <row r="14">
@@ -4188,7 +3864,7 @@
         <v>0.780218703903518</v>
       </c>
       <c r="D14" t="n" s="174">
-        <v>0.7293949086877209</v>
+        <v>0.7293949086877212</v>
       </c>
       <c r="E14" t="n" s="175">
         <v>0.5419831747051501</v>
@@ -4218,25 +3894,25 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="183">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18">
       <c r="A18"/>
       <c r="B18" t="s" s="197">
+        <v>32</v>
+      </c>
+      <c r="C18" t="s" s="197">
+        <v>33</v>
+      </c>
+      <c r="D18" t="s" s="197">
+        <v>34</v>
+      </c>
+      <c r="E18" t="s" s="197">
+        <v>35</v>
+      </c>
+      <c r="F18" t="s" s="197">
         <v>36</v>
-      </c>
-      <c r="C18" t="s" s="197">
-        <v>37</v>
-      </c>
-      <c r="D18" t="s" s="197">
-        <v>38</v>
-      </c>
-      <c r="E18" t="s" s="197">
-        <v>39</v>
-      </c>
-      <c r="F18" t="s" s="197">
-        <v>40</v>
       </c>
       <c r="G18" t="s" s="197">
         <v>9</v>
@@ -4253,22 +3929,22 @@
         <v>54.0</v>
       </c>
       <c r="C19" t="n" s="199">
-        <v>0.8574886370020453</v>
+        <v>0.6642951044943659</v>
       </c>
       <c r="D19" t="n" s="200">
-        <v>0.852469767872915</v>
+        <v>0.6905104317804251</v>
       </c>
       <c r="E19" t="n" s="201">
-        <v>0.7990785438948137</v>
+        <v>0.5232249510700734</v>
       </c>
       <c r="F19" t="n" s="202">
-        <v>0.7141355311096549</v>
+        <v>0.4620641354491866</v>
       </c>
       <c r="G19" t="n" s="203">
-        <v>2.0</v>
+        <v>1.9259259259259258</v>
       </c>
       <c r="H19" t="n" s="204">
-        <v>1.0988845115895123</v>
+        <v>0.9080738863598871</v>
       </c>
     </row>
     <row r="20">
@@ -4279,22 +3955,22 @@
         <v>54.0</v>
       </c>
       <c r="C20" t="n" s="199">
-        <v>0.8789476690303313</v>
+        <v>0.8574886370020453</v>
       </c>
       <c r="D20" t="n" s="200">
-        <v>0.8703463427730177</v>
+        <v>0.852469767872915</v>
       </c>
       <c r="E20" t="n" s="201">
-        <v>0.8433485788256623</v>
+        <v>0.7990785438948139</v>
       </c>
       <c r="F20" t="n" s="202">
-        <v>0.7580271052584893</v>
+        <v>0.7141355311096549</v>
       </c>
       <c r="G20" t="n" s="203">
-        <v>2.0185185185185186</v>
+        <v>2.0</v>
       </c>
       <c r="H20" t="n" s="204">
-        <v>1.072657443090119</v>
+        <v>1.0988845115895123</v>
       </c>
     </row>
     <row r="21">
@@ -4305,22 +3981,22 @@
         <v>54.0</v>
       </c>
       <c r="C21" t="n" s="199">
-        <v>0.6642951044943659</v>
+        <v>0.8789476690303313</v>
       </c>
       <c r="D21" t="n" s="200">
-        <v>0.6905104317804251</v>
+        <v>0.8703463427730177</v>
       </c>
       <c r="E21" t="n" s="201">
-        <v>0.5232249510700734</v>
+        <v>0.8433485788256623</v>
       </c>
       <c r="F21" t="n" s="202">
-        <v>0.4620641354491866</v>
+        <v>0.7580271052584893</v>
       </c>
       <c r="G21" t="n" s="203">
-        <v>1.9259259259259258</v>
+        <v>2.0185185185185186</v>
       </c>
       <c r="H21" t="n" s="204">
-        <v>0.9080738863598871</v>
+        <v>1.072657443090119</v>
       </c>
     </row>
     <row r="22">
@@ -4337,7 +4013,7 @@
         <v>0.7564693993471636</v>
       </c>
       <c r="E22" t="n" s="201">
-        <v>0.6527007688202342</v>
+        <v>0.6527007688202341</v>
       </c>
       <c r="F22" t="n" s="202">
         <v>0.5700384331242034</v>
@@ -4361,28 +4037,28 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="208">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="26">
       <c r="A26"/>
       <c r="B26" t="s" s="222">
+        <v>38</v>
+      </c>
+      <c r="C26" t="s" s="222">
+        <v>39</v>
+      </c>
+      <c r="D26" t="s" s="222">
+        <v>40</v>
+      </c>
+      <c r="E26" t="s" s="222">
+        <v>41</v>
+      </c>
+      <c r="F26" t="s" s="222">
         <v>42</v>
       </c>
-      <c r="C26" t="s" s="222">
+      <c r="G26" t="s" s="222">
         <v>43</v>
-      </c>
-      <c r="D26" t="s" s="222">
-        <v>44</v>
-      </c>
-      <c r="E26" t="s" s="222">
-        <v>45</v>
-      </c>
-      <c r="F26" t="s" s="222">
-        <v>46</v>
-      </c>
-      <c r="G26" t="s" s="222">
-        <v>47</v>
       </c>
     </row>
     <row r="27">
@@ -4390,19 +4066,19 @@
         <v>18</v>
       </c>
       <c r="B27" t="n" s="223">
-        <v>0.46296296296296297</v>
+        <v>0.3148148148148148</v>
       </c>
       <c r="C27" t="n" s="224">
-        <v>0.18518518518518517</v>
+        <v>0.5370370370370371</v>
       </c>
       <c r="D27" t="n" s="225">
-        <v>0.25925925925925924</v>
+        <v>0.09259259259259259</v>
       </c>
       <c r="E27" t="n" s="226">
-        <v>0.07407407407407407</v>
+        <v>0.018518518518518517</v>
       </c>
       <c r="F27" t="n" s="227">
-        <v>0.018518518518518517</v>
+        <v>0.037037037037037035</v>
       </c>
       <c r="G27" t="n" s="228">
         <v>0.0</v>
@@ -4413,16 +4089,16 @@
         <v>19</v>
       </c>
       <c r="B28" t="n" s="223">
-        <v>0.4444444444444444</v>
+        <v>0.46296296296296297</v>
       </c>
       <c r="C28" t="n" s="224">
         <v>0.18518518518518517</v>
       </c>
       <c r="D28" t="n" s="225">
-        <v>0.2962962962962963</v>
+        <v>0.25925925925925924</v>
       </c>
       <c r="E28" t="n" s="226">
-        <v>0.05555555555555555</v>
+        <v>0.07407407407407407</v>
       </c>
       <c r="F28" t="n" s="227">
         <v>0.018518518518518517</v>
@@ -4436,19 +4112,19 @@
         <v>20</v>
       </c>
       <c r="B29" t="n" s="223">
-        <v>0.3148148148148148</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="C29" t="n" s="224">
-        <v>0.5370370370370371</v>
+        <v>0.18518518518518517</v>
       </c>
       <c r="D29" t="n" s="225">
-        <v>0.09259259259259259</v>
+        <v>0.2962962962962963</v>
       </c>
       <c r="E29" t="n" s="226">
+        <v>0.05555555555555555</v>
+      </c>
+      <c r="F29" t="n" s="227">
         <v>0.018518518518518517</v>
-      </c>
-      <c r="F29" t="n" s="227">
-        <v>0.037037037037037035</v>
       </c>
       <c r="G29" t="n" s="228">
         <v>0.0</v>
@@ -4504,7 +4180,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="230">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2">
@@ -4577,7 +4253,7 @@
         <v>0.6981278971347749</v>
       </c>
       <c r="I6" t="n" s="267">
-        <v>0.3282214231965049</v>
+        <v>0.3282214231965048</v>
       </c>
     </row>
     <row r="7">
@@ -4627,28 +4303,28 @@
         <v>22</v>
       </c>
       <c r="B11" t="n" s="286">
-        <v>0.7017903512368456</v>
+        <v>0.7797750915045271</v>
       </c>
       <c r="C11" t="n" s="287">
-        <v>0.7038328443822816</v>
+        <v>0.7843562930431186</v>
       </c>
       <c r="D11" t="n" s="288">
-        <v>0.6848320668090332</v>
+        <v>0.7758387051079567</v>
       </c>
       <c r="E11" t="n" s="289">
-        <v>0.32216915514914213</v>
+        <v>0.4211139769122606</v>
       </c>
       <c r="F11" t="n" s="290">
-        <v>2.3764716344534937</v>
+        <v>3.6372788434765337</v>
       </c>
       <c r="G11" t="n" s="291">
-        <v>0.06296282257604524</v>
+        <v>0.04649987739779102</v>
       </c>
       <c r="H11" t="n" s="292">
-        <v>0.016816017831679884</v>
+        <v>0.011330923024050045</v>
       </c>
       <c r="I11" t="n" s="293">
-        <v>0.3274467281079734</v>
+        <v>0.39688283390732204</v>
       </c>
     </row>
     <row r="12">
@@ -4685,28 +4361,28 @@
         <v>24</v>
       </c>
       <c r="B13" t="n" s="286">
-        <v>0.705604571293226</v>
+        <v>0.7052745982830727</v>
       </c>
       <c r="C13" t="n" s="287">
-        <v>0.7140923027626739</v>
+        <v>0.706074480326039</v>
       </c>
       <c r="D13" t="n" s="288">
-        <v>0.6952377341625259</v>
+        <v>0.6891883237929243</v>
       </c>
       <c r="E13" t="n" s="289">
-        <v>0.3331228056827288</v>
+        <v>0.3245271892874567</v>
       </c>
       <c r="F13" t="n" s="290">
-        <v>2.497632311626505</v>
+        <v>2.4022224443432387</v>
       </c>
       <c r="G13" t="n" s="291">
-        <v>0.06280209896790462</v>
+        <v>0.06152978396474884</v>
       </c>
       <c r="H13" t="n" s="292">
-        <v>0.0165710683998843</v>
+        <v>0.022753513487360728</v>
       </c>
       <c r="I13" t="n" s="293">
-        <v>0.3274467281079734</v>
+        <v>0.32603861124096445</v>
       </c>
     </row>
     <row r="14">
@@ -4714,28 +4390,28 @@
         <v>25</v>
       </c>
       <c r="B14" t="n" s="286">
-        <v>0.7140988551027945</v>
+        <v>0.7017903512368456</v>
       </c>
       <c r="C14" t="n" s="287">
-        <v>0.7197249519501181</v>
+        <v>0.7038328443822816</v>
       </c>
       <c r="D14" t="n" s="288">
-        <v>0.7233377899896981</v>
+        <v>0.6848320668090333</v>
       </c>
       <c r="E14" t="n" s="289">
-        <v>0.3393168104915315</v>
+        <v>0.32216915514914213</v>
       </c>
       <c r="F14" t="n" s="290">
-        <v>2.567923748324629</v>
+        <v>2.3764716344534937</v>
       </c>
       <c r="G14" t="n" s="291">
-        <v>0.06191767761618223</v>
+        <v>0.06296282257604521</v>
       </c>
       <c r="H14" t="n" s="292">
-        <v>0.024637025538332514</v>
+        <v>0.01681601783167988</v>
       </c>
       <c r="I14" t="n" s="293">
-        <v>0.3214128931346751</v>
+        <v>0.3274467281079734</v>
       </c>
     </row>
     <row r="15">
@@ -4743,28 +4419,28 @@
         <v>26</v>
       </c>
       <c r="B15" t="n" s="286">
-        <v>0.7052745982830727</v>
+        <v>0.705604571293226</v>
       </c>
       <c r="C15" t="n" s="287">
-        <v>0.706074480326039</v>
+        <v>0.7140923027626739</v>
       </c>
       <c r="D15" t="n" s="288">
-        <v>0.6891883237929242</v>
+        <v>0.6952377341625258</v>
       </c>
       <c r="E15" t="n" s="289">
-        <v>0.3245271892874567</v>
+        <v>0.3331228056827288</v>
       </c>
       <c r="F15" t="n" s="290">
-        <v>2.4022224443432387</v>
+        <v>2.497632311626505</v>
       </c>
       <c r="G15" t="n" s="291">
-        <v>0.06152978396474884</v>
+        <v>0.06280209896790462</v>
       </c>
       <c r="H15" t="n" s="292">
-        <v>0.022753513487360728</v>
+        <v>0.0165710683998843</v>
       </c>
       <c r="I15" t="n" s="293">
-        <v>0.32603861124096445</v>
+        <v>0.3274467281079734</v>
       </c>
     </row>
     <row r="16">
@@ -4772,28 +4448,28 @@
         <v>27</v>
       </c>
       <c r="B16" t="n" s="286">
-        <v>0.7797750915045271</v>
+        <v>0.7140988551027945</v>
       </c>
       <c r="C16" t="n" s="287">
-        <v>0.7843562930431186</v>
+        <v>0.7197249519501181</v>
       </c>
       <c r="D16" t="n" s="288">
-        <v>0.7758387051079566</v>
+        <v>0.723337789989698</v>
       </c>
       <c r="E16" t="n" s="289">
-        <v>0.4211139769122606</v>
+        <v>0.3393168104915315</v>
       </c>
       <c r="F16" t="n" s="290">
-        <v>3.6372788434765337</v>
+        <v>2.567923748324629</v>
       </c>
       <c r="G16" t="n" s="291">
-        <v>0.04649987739779102</v>
+        <v>0.06191767761618223</v>
       </c>
       <c r="H16" t="n" s="292">
-        <v>0.011330923024050046</v>
+        <v>0.024637025538332514</v>
       </c>
       <c r="I16" t="n" s="293">
-        <v>0.39688283390732204</v>
+        <v>0.3214128931346751</v>
       </c>
     </row>
     <row r="17">
@@ -4808,25 +4484,25 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="297">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20">
       <c r="A20"/>
       <c r="B20" t="s" s="311">
+        <v>32</v>
+      </c>
+      <c r="C20" t="s" s="311">
+        <v>33</v>
+      </c>
+      <c r="D20" t="s" s="311">
+        <v>34</v>
+      </c>
+      <c r="E20" t="s" s="311">
+        <v>35</v>
+      </c>
+      <c r="F20" t="s" s="311">
         <v>36</v>
-      </c>
-      <c r="C20" t="s" s="311">
-        <v>37</v>
-      </c>
-      <c r="D20" t="s" s="311">
-        <v>38</v>
-      </c>
-      <c r="E20" t="s" s="311">
-        <v>39</v>
-      </c>
-      <c r="F20" t="s" s="311">
-        <v>40</v>
       </c>
       <c r="G20" t="s" s="311">
         <v>9</v>
@@ -4843,22 +4519,22 @@
         <v>54.0</v>
       </c>
       <c r="C21" t="n" s="313">
-        <v>0.7283355980251898</v>
+        <v>0.48266270700512615</v>
       </c>
       <c r="D21" t="n" s="314">
-        <v>0.742555842711998</v>
+        <v>0.49875285067289227</v>
       </c>
       <c r="E21" t="n" s="315">
-        <v>0.7057378124759317</v>
+        <v>0.3270965733319361</v>
       </c>
       <c r="F21" t="n" s="316">
-        <v>0.5962668996891163</v>
+        <v>0.2692450268595357</v>
       </c>
       <c r="G21" t="n" s="317">
-        <v>2.2037037037037037</v>
+        <v>3.6296296296296298</v>
       </c>
       <c r="H21" t="n" s="318">
-        <v>0.918974605550339</v>
+        <v>0.9961491192511118</v>
       </c>
     </row>
     <row r="22">
@@ -4875,7 +4551,7 @@
         <v>0.6644689321279326</v>
       </c>
       <c r="E22" t="n" s="315">
-        <v>0.5571346581697436</v>
+        <v>0.5571346581697437</v>
       </c>
       <c r="F22" t="n" s="316">
         <v>0.4947809099993691</v>
@@ -4895,22 +4571,22 @@
         <v>54.0</v>
       </c>
       <c r="C23" t="n" s="313">
-        <v>0.7355240355470775</v>
+        <v>0.7185312799526834</v>
       </c>
       <c r="D23" t="n" s="314">
-        <v>0.7155657210840806</v>
+        <v>0.7367455762624027</v>
       </c>
       <c r="E23" t="n" s="315">
-        <v>0.6638065447951588</v>
+        <v>0.690719889105344</v>
       </c>
       <c r="F23" t="n" s="316">
-        <v>0.563543768017699</v>
+        <v>0.5758999419541214</v>
       </c>
       <c r="G23" t="n" s="317">
-        <v>2.5185185185185186</v>
+        <v>2.6296296296296298</v>
       </c>
       <c r="H23" t="n" s="318">
-        <v>1.144976571248162</v>
+        <v>0.9575183390784525</v>
       </c>
     </row>
     <row r="24">
@@ -4921,22 +4597,22 @@
         <v>54.0</v>
       </c>
       <c r="C24" t="n" s="313">
-        <v>0.737651293949298</v>
+        <v>0.7283355980251898</v>
       </c>
       <c r="D24" t="n" s="314">
-        <v>0.7003035084873868</v>
+        <v>0.742555842711998</v>
       </c>
       <c r="E24" t="n" s="315">
-        <v>0.6135395864164765</v>
+        <v>0.7057378124759316</v>
       </c>
       <c r="F24" t="n" s="316">
-        <v>0.5435599801328602</v>
+        <v>0.5962668996891163</v>
       </c>
       <c r="G24" t="n" s="317">
-        <v>1.962962962962963</v>
+        <v>2.2037037037037037</v>
       </c>
       <c r="H24" t="n" s="318">
-        <v>1.258375157231827</v>
+        <v>0.918974605550339</v>
       </c>
     </row>
     <row r="25">
@@ -4947,22 +4623,22 @@
         <v>54.0</v>
       </c>
       <c r="C25" t="n" s="313">
-        <v>0.7185312799526834</v>
+        <v>0.7355240355470775</v>
       </c>
       <c r="D25" t="n" s="314">
-        <v>0.7367455762624027</v>
+        <v>0.7155657210840806</v>
       </c>
       <c r="E25" t="n" s="315">
-        <v>0.690719889105344</v>
+        <v>0.6638065447951588</v>
       </c>
       <c r="F25" t="n" s="316">
-        <v>0.5758999419541214</v>
+        <v>0.563543768017699</v>
       </c>
       <c r="G25" t="n" s="317">
-        <v>2.6296296296296298</v>
+        <v>2.5185185185185186</v>
       </c>
       <c r="H25" t="n" s="318">
-        <v>0.9575183390784525</v>
+        <v>1.144976571248162</v>
       </c>
     </row>
     <row r="26">
@@ -4973,22 +4649,22 @@
         <v>54.0</v>
       </c>
       <c r="C26" t="n" s="313">
-        <v>0.48266270700512615</v>
+        <v>0.737651293949298</v>
       </c>
       <c r="D26" t="n" s="314">
-        <v>0.49875285067289227</v>
+        <v>0.7003035084873868</v>
       </c>
       <c r="E26" t="n" s="315">
-        <v>0.3270965733319361</v>
+        <v>0.6135395864164765</v>
       </c>
       <c r="F26" t="n" s="316">
-        <v>0.2692450268595357</v>
+        <v>0.5435599801328602</v>
       </c>
       <c r="G26" t="n" s="317">
-        <v>3.6296296296296298</v>
+        <v>1.962962962962963</v>
       </c>
       <c r="H26" t="n" s="318">
-        <v>0.9961491192511118</v>
+        <v>1.258375157231827</v>
       </c>
     </row>
     <row r="27">
@@ -5003,28 +4679,28 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="322">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="30">
       <c r="A30"/>
       <c r="B30" t="s" s="336">
+        <v>38</v>
+      </c>
+      <c r="C30" t="s" s="336">
+        <v>39</v>
+      </c>
+      <c r="D30" t="s" s="336">
+        <v>40</v>
+      </c>
+      <c r="E30" t="s" s="336">
+        <v>41</v>
+      </c>
+      <c r="F30" t="s" s="336">
         <v>42</v>
       </c>
-      <c r="C30" t="s" s="336">
+      <c r="G30" t="s" s="336">
         <v>43</v>
-      </c>
-      <c r="D30" t="s" s="336">
-        <v>44</v>
-      </c>
-      <c r="E30" t="s" s="336">
-        <v>45</v>
-      </c>
-      <c r="F30" t="s" s="336">
-        <v>46</v>
-      </c>
-      <c r="G30" t="s" s="336">
-        <v>47</v>
       </c>
     </row>
     <row r="31">
@@ -5032,19 +4708,19 @@
         <v>22</v>
       </c>
       <c r="B31" t="n" s="337">
+        <v>0.05555555555555555</v>
+      </c>
+      <c r="C31" t="n" s="338">
+        <v>0.07407407407407407</v>
+      </c>
+      <c r="D31" t="n" s="339">
         <v>0.18518518518518517</v>
       </c>
-      <c r="C31" t="n" s="338">
-        <v>0.5370370370370371</v>
-      </c>
-      <c r="D31" t="n" s="339">
-        <v>0.2037037037037037</v>
-      </c>
       <c r="E31" t="n" s="340">
-        <v>0.037037037037037035</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="F31" t="n" s="341">
-        <v>0.037037037037037035</v>
+        <v>0.12962962962962962</v>
       </c>
       <c r="G31" t="n" s="342">
         <v>0.0</v>
@@ -5078,19 +4754,19 @@
         <v>24</v>
       </c>
       <c r="B33" t="n" s="337">
-        <v>0.2222222222222222</v>
+        <v>0.09259259259259259</v>
       </c>
       <c r="C33" t="n" s="338">
-        <v>0.3148148148148148</v>
+        <v>0.37037037037037035</v>
       </c>
       <c r="D33" t="n" s="339">
-        <v>0.2037037037037037</v>
+        <v>0.4074074074074074</v>
       </c>
       <c r="E33" t="n" s="340">
-        <v>0.24074074074074073</v>
+        <v>0.07407407407407407</v>
       </c>
       <c r="F33" t="n" s="341">
-        <v>0.018518518518518517</v>
+        <v>0.05555555555555555</v>
       </c>
       <c r="G33" t="n" s="342">
         <v>0.0</v>
@@ -5101,19 +4777,19 @@
         <v>25</v>
       </c>
       <c r="B34" t="n" s="337">
-        <v>0.5</v>
+        <v>0.18518518518518517</v>
       </c>
       <c r="C34" t="n" s="338">
-        <v>0.25925925925925924</v>
+        <v>0.5370370370370371</v>
       </c>
       <c r="D34" t="n" s="339">
-        <v>0.09259259259259259</v>
+        <v>0.2037037037037037</v>
       </c>
       <c r="E34" t="n" s="340">
-        <v>0.07407407407407407</v>
+        <v>0.037037037037037035</v>
       </c>
       <c r="F34" t="n" s="341">
-        <v>0.07407407407407407</v>
+        <v>0.037037037037037035</v>
       </c>
       <c r="G34" t="n" s="342">
         <v>0.0</v>
@@ -5124,19 +4800,19 @@
         <v>26</v>
       </c>
       <c r="B35" t="n" s="337">
-        <v>0.09259259259259259</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="C35" t="n" s="338">
-        <v>0.37037037037037035</v>
+        <v>0.3148148148148148</v>
       </c>
       <c r="D35" t="n" s="339">
-        <v>0.4074074074074074</v>
+        <v>0.2037037037037037</v>
       </c>
       <c r="E35" t="n" s="340">
-        <v>0.07407407407407407</v>
+        <v>0.24074074074074073</v>
       </c>
       <c r="F35" t="n" s="341">
-        <v>0.05555555555555555</v>
+        <v>0.018518518518518517</v>
       </c>
       <c r="G35" t="n" s="342">
         <v>0.0</v>
@@ -5147,19 +4823,19 @@
         <v>27</v>
       </c>
       <c r="B36" t="n" s="337">
-        <v>0.05555555555555555</v>
+        <v>0.5</v>
       </c>
       <c r="C36" t="n" s="338">
+        <v>0.25925925925925924</v>
+      </c>
+      <c r="D36" t="n" s="339">
+        <v>0.09259259259259259</v>
+      </c>
+      <c r="E36" t="n" s="340">
         <v>0.07407407407407407</v>
       </c>
-      <c r="D36" t="n" s="339">
-        <v>0.18518518518518517</v>
-      </c>
-      <c r="E36" t="n" s="340">
-        <v>0.5555555555555556</v>
-      </c>
       <c r="F36" t="n" s="341">
-        <v>0.12962962962962962</v>
+        <v>0.07407407407407407</v>
       </c>
       <c r="G36" t="n" s="342">
         <v>0.0</v>
@@ -5192,7 +4868,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="344">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2">
@@ -5241,31 +4917,31 @@
     </row>
     <row r="6">
       <c r="A6" t="n" s="373">
-        <v>0.7792986053104514</v>
+        <v>0.6429315011451175</v>
       </c>
       <c r="B6" t="n" s="374">
-        <v>0.7817279457057932</v>
+        <v>0.6557362505555839</v>
       </c>
       <c r="C6" t="n" s="375">
-        <v>0.7741157592525725</v>
+        <v>0.560264606276561</v>
       </c>
       <c r="D6" t="n" s="376">
-        <v>0.3384642382188629</v>
+        <v>0.3883479842567585</v>
       </c>
       <c r="E6" t="n" s="377">
-        <v>3.5814385319895745</v>
+        <v>1.904749633424467</v>
       </c>
       <c r="F6" t="n" s="378">
-        <v>0.04468336859400675</v>
+        <v>0.0825482465017545</v>
       </c>
       <c r="G6" t="n" s="379">
-        <v>2.925925925925926</v>
+        <v>2.8703703703703702</v>
       </c>
       <c r="H6" t="n" s="380">
-        <v>0.6128773052186013</v>
+        <v>0.7479298240230647</v>
       </c>
       <c r="I6" t="n" s="381">
-        <v>0.3402339186067174</v>
+        <v>0.3875139229133539</v>
       </c>
     </row>
     <row r="7">
@@ -5315,28 +4991,26 @@
         <v>28</v>
       </c>
       <c r="B11" t="n" s="400">
-        <v>0.7327863247863247</v>
+        <v>0.5852719396759185</v>
       </c>
       <c r="C11" t="n" s="401">
-        <v>0.7353916950431061</v>
+        <v>0.5860557682209149</v>
       </c>
       <c r="D11" t="n" s="402">
-        <v>0.7207216508585219</v>
+        <v>0.41448294426967214</v>
       </c>
       <c r="E11" t="n" s="403">
-        <v>0.3165641626278442</v>
+        <v>0.414482944269672</v>
       </c>
       <c r="F11" t="n" s="404">
-        <v>2.7791708773574024</v>
+        <v>1.4157843574776094</v>
       </c>
       <c r="G11" t="n" s="405">
-        <v>0.05566626730922714</v>
-      </c>
-      <c r="H11" t="n" s="406">
-        <v>0.006966462594146822</v>
-      </c>
+        <v>0.11261714198476121</v>
+      </c>
+      <c r="H11" s="406"/>
       <c r="I11" t="n" s="407">
-        <v>0.30075729573306065</v>
+        <v>0.4144829442696721</v>
       </c>
     </row>
     <row r="12">
@@ -5344,28 +5018,26 @@
         <v>29</v>
       </c>
       <c r="B12" t="n" s="400">
-        <v>0.7586596457635232</v>
+        <v>0.5211132437619961</v>
       </c>
       <c r="C12" t="n" s="401">
-        <v>0.7631295017790964</v>
+        <v>0.5326992580462997</v>
       </c>
       <c r="D12" t="n" s="402">
-        <v>0.7509339184140988</v>
+        <v>0.3630470855872492</v>
       </c>
       <c r="E12" t="n" s="403">
-        <v>0.34936188407632884</v>
+        <v>0.3630470855872494</v>
       </c>
       <c r="F12" t="n" s="404">
-        <v>3.2217161170801787</v>
+        <v>1.139949523339466</v>
       </c>
       <c r="G12" t="n" s="405">
-        <v>0.04953873175279381</v>
-      </c>
-      <c r="H12" t="n" s="406">
-        <v>0.008576792551913312</v>
-      </c>
+        <v>0.12594988726382397</v>
+      </c>
+      <c r="H12" s="406"/>
       <c r="I12" t="n" s="407">
-        <v>0.3560601408365952</v>
+        <v>0.3630470855872493</v>
       </c>
     </row>
     <row r="13">
@@ -5373,561 +5045,247 @@
         <v>30</v>
       </c>
       <c r="B13" t="n" s="400">
-        <v>0.7550220750551875</v>
+        <v>0.5400718444196706</v>
       </c>
       <c r="C13" t="n" s="401">
-        <v>0.7569654078635695</v>
+        <v>0.5585730226039007</v>
       </c>
       <c r="D13" t="n" s="402">
-        <v>0.7324433173217607</v>
+        <v>0.38751392291335407</v>
       </c>
       <c r="E13" t="n" s="403">
-        <v>0.34171842167596034</v>
+        <v>0.38751392291335396</v>
       </c>
       <c r="F13" t="n" s="404">
-        <v>3.1146405999629767</v>
+        <v>1.2653803487472055</v>
       </c>
       <c r="G13" t="n" s="405">
-        <v>0.05087849342818368</v>
-      </c>
-      <c r="H13" t="n" s="406">
-        <v>0.004120070441757143</v>
-      </c>
+        <v>0.1185711766720035</v>
+      </c>
+      <c r="H13" s="406"/>
       <c r="I13" t="n" s="407">
-        <v>0.3402339186067174</v>
+        <v>0.3875139229133539</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="s" s="395">
+      <c r="A14" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="411">
         <v>31</v>
       </c>
-      <c r="B14" t="n" s="400">
-        <v>0.7567819050211587</v>
-      </c>
-      <c r="C14" t="n" s="401">
-        <v>0.7576358274246536</v>
-      </c>
-      <c r="D14" t="n" s="402">
-        <v>0.7420176457696827</v>
-      </c>
-      <c r="E14" t="n" s="403">
-        <v>0.34253941634281354</v>
-      </c>
-      <c r="F14" t="n" s="404">
-        <v>3.126022379356089</v>
-      </c>
-      <c r="G14" t="n" s="405">
-        <v>0.049165897894359684</v>
-      </c>
-      <c r="H14" t="n" s="406">
-        <v>0.009379515696268503</v>
-      </c>
-      <c r="I14" t="n" s="407">
-        <v>0.35158595967909767</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="s" s="395">
+    </row>
+    <row r="17">
+      <c r="A17"/>
+      <c r="B17" t="s" s="425">
         <v>32</v>
       </c>
-      <c r="B15" t="n" s="400">
-        <v>0.7420664600918901</v>
-      </c>
-      <c r="C15" t="n" s="401">
-        <v>0.7441839085173386</v>
-      </c>
-      <c r="D15" t="n" s="402">
-        <v>0.7261599892195059</v>
-      </c>
-      <c r="E15" t="n" s="403">
-        <v>0.32652814256586926</v>
-      </c>
-      <c r="F15" t="n" s="404">
-        <v>2.9090582386908914</v>
-      </c>
-      <c r="G15" t="n" s="405">
-        <v>0.052767847588012236</v>
-      </c>
-      <c r="H15" t="n" s="406">
-        <v>0.006552157906298143</v>
-      </c>
-      <c r="I15" t="n" s="407">
-        <v>0.3306232612667902</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="s" s="395">
+      <c r="C17" t="s" s="425">
         <v>33</v>
       </c>
-      <c r="B16" t="n" s="400">
-        <v>0.759678356907576</v>
-      </c>
-      <c r="C16" t="n" s="401">
-        <v>0.7635934833712598</v>
-      </c>
-      <c r="D16" t="n" s="402">
-        <v>0.74981161818015</v>
-      </c>
-      <c r="E16" t="n" s="403">
-        <v>0.3499459583097215</v>
-      </c>
-      <c r="F16" t="n" s="404">
-        <v>3.2300018386144123</v>
-      </c>
-      <c r="G16" t="n" s="405">
-        <v>0.04901848763267025</v>
-      </c>
-      <c r="H16" t="n" s="406">
-        <v>0.00774538138361711</v>
-      </c>
-      <c r="I16" t="n" s="407">
-        <v>0.35158595967909767</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s" s="395">
+      <c r="D17" t="s" s="425">
         <v>34</v>
       </c>
-      <c r="B17" t="n" s="400">
-        <v>0.7526795426527109</v>
-      </c>
-      <c r="C17" t="n" s="401">
-        <v>0.7576784385179475</v>
-      </c>
-      <c r="D17" t="n" s="402">
-        <v>0.7372336125634029</v>
-      </c>
-      <c r="E17" t="n" s="403">
-        <v>0.3425916819335024</v>
-      </c>
-      <c r="F17" t="n" s="404">
-        <v>3.1267479207543176</v>
-      </c>
-      <c r="G17" t="n" s="405">
-        <v>0.050647349441150416</v>
-      </c>
-      <c r="H17" t="n" s="406">
-        <v>0.006938069962616398</v>
-      </c>
-      <c r="I17" t="n" s="407">
-        <v>0.3306232612667902</v>
+      <c r="E17" t="s" s="425">
+        <v>35</v>
+      </c>
+      <c r="F17" t="s" s="425">
+        <v>36</v>
+      </c>
+      <c r="G17" t="s" s="425">
+        <v>9</v>
+      </c>
+      <c r="H17" t="s" s="425">
+        <v>10</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="s">
+      <c r="A18" t="s" s="421">
+        <v>28</v>
+      </c>
+      <c r="B18" t="n" s="426">
+        <v>54.0</v>
+      </c>
+      <c r="C18" t="n" s="427">
+        <v>0.8083052282633061</v>
+      </c>
+      <c r="D18" t="n" s="428">
+        <v>0.7582458902522279</v>
+      </c>
+      <c r="E18" t="n" s="429">
+        <v>0.5498621739432797</v>
+      </c>
+      <c r="F18" t="n" s="430">
+        <v>0.44570898162090533</v>
+      </c>
+      <c r="G18" t="n" s="431">
+        <v>3.1481481481481484</v>
+      </c>
+      <c r="H18" t="n" s="432">
+        <v>1.1559102825961884</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="421">
+        <v>29</v>
+      </c>
+      <c r="B19" t="n" s="426">
+        <v>54.0</v>
+      </c>
+      <c r="C19" t="n" s="427">
+        <v>0.7455966299511604</v>
+      </c>
+      <c r="D19" t="n" s="428">
+        <v>0.7805250500576589</v>
+      </c>
+      <c r="E19" t="n" s="429">
+        <v>0.6009614992857059</v>
+      </c>
+      <c r="F19" t="n" s="430">
+        <v>0.48206430498698005</v>
+      </c>
+      <c r="G19" t="n" s="431">
+        <v>2.3518518518518516</v>
+      </c>
+      <c r="H19" t="n" s="432">
+        <v>0.8502476311297721</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="421">
+        <v>30</v>
+      </c>
+      <c r="B20" t="n" s="426">
+        <v>54.0</v>
+      </c>
+      <c r="C20" t="n" s="427">
+        <v>0.7470758511634104</v>
+      </c>
+      <c r="D20" t="n" s="428">
+        <v>0.7699273737927919</v>
+      </c>
+      <c r="E20" t="n" s="429">
+        <v>0.577256070827155</v>
+      </c>
+      <c r="F20" t="n" s="430">
+        <v>0.4596953163727414</v>
+      </c>
+      <c r="G20" t="n" s="431">
+        <v>3.111111111111111</v>
+      </c>
+      <c r="H20" t="n" s="432">
+        <v>0.9042179288717305</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" t="s">
+    <row r="22">
+      <c r="A22" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="s" s="411">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21"/>
-      <c r="B21" t="s" s="425">
-        <v>36</v>
-      </c>
-      <c r="C21" t="s" s="425">
+    <row r="23">
+      <c r="A23" t="s" s="436">
         <v>37</v>
       </c>
-      <c r="D21" t="s" s="425">
+    </row>
+    <row r="24">
+      <c r="A24"/>
+      <c r="B24" t="s" s="450">
         <v>38</v>
       </c>
-      <c r="E21" t="s" s="425">
+      <c r="C24" t="s" s="450">
         <v>39</v>
       </c>
-      <c r="F21" t="s" s="425">
+      <c r="D24" t="s" s="450">
         <v>40</v>
       </c>
-      <c r="G21" t="s" s="425">
-        <v>9</v>
-      </c>
-      <c r="H21" t="s" s="425">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="s" s="421">
+      <c r="E24" t="s" s="450">
+        <v>41</v>
+      </c>
+      <c r="F24" t="s" s="450">
+        <v>42</v>
+      </c>
+      <c r="G24" t="s" s="450">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="446">
         <v>28</v>
       </c>
-      <c r="B22" t="n" s="426">
-        <v>54.0</v>
-      </c>
-      <c r="C22" t="n" s="427">
-        <v>0.7539081555185285</v>
-      </c>
-      <c r="D22" t="n" s="428">
-        <v>0.7293238862378174</v>
-      </c>
-      <c r="E22" t="n" s="429">
-        <v>0.6782070765585606</v>
-      </c>
-      <c r="F22" t="n" s="430">
-        <v>0.593503614201976</v>
-      </c>
-      <c r="G22" t="n" s="431">
-        <v>3.1481481481481484</v>
-      </c>
-      <c r="H22" t="n" s="432">
-        <v>1.1559102825961884</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="s" s="421">
+      <c r="B25" t="n" s="451">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="C25" t="n" s="452">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="D25" t="n" s="453">
+        <v>0.2777777777777778</v>
+      </c>
+      <c r="E25" t="n" s="454">
+        <v>0.35185185185185186</v>
+      </c>
+      <c r="F25" t="n" s="455">
+        <v>0.09259259259259259</v>
+      </c>
+      <c r="G25" t="n" s="456">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="446">
         <v>29</v>
       </c>
-      <c r="B23" t="n" s="426">
-        <v>54.0</v>
-      </c>
-      <c r="C23" t="n" s="427">
-        <v>0.6154564647407409</v>
-      </c>
-      <c r="D23" t="n" s="428">
-        <v>0.6225147711920247</v>
-      </c>
-      <c r="E23" t="n" s="429">
-        <v>0.519193367980598</v>
-      </c>
-      <c r="F23" t="n" s="430">
-        <v>0.46559376230851335</v>
-      </c>
-      <c r="G23" t="n" s="431">
-        <v>2.5555555555555554</v>
-      </c>
-      <c r="H23" t="n" s="432">
-        <v>0.8614745293854451</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="s" s="421">
+      <c r="B26" t="n" s="451">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="C26" t="n" s="452">
+        <v>0.3888888888888889</v>
+      </c>
+      <c r="D26" t="n" s="453">
+        <v>0.37037037037037035</v>
+      </c>
+      <c r="E26" t="n" s="454">
+        <v>0.07407407407407407</v>
+      </c>
+      <c r="F26" t="n" s="455">
+        <v>0.0</v>
+      </c>
+      <c r="G26" t="n" s="456">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s" s="446">
         <v>30</v>
       </c>
-      <c r="B24" t="n" s="426">
-        <v>54.0</v>
-      </c>
-      <c r="C24" t="n" s="427">
-        <v>0.6224309896556919</v>
-      </c>
-      <c r="D24" t="n" s="428">
-        <v>0.6474064837505161</v>
-      </c>
-      <c r="E24" t="n" s="429">
-        <v>0.5781313862963492</v>
-      </c>
-      <c r="F24" t="n" s="430">
-        <v>0.5079336010594292</v>
-      </c>
-      <c r="G24" t="n" s="431">
-        <v>2.7037037037037037</v>
-      </c>
-      <c r="H24" t="n" s="432">
-        <v>0.6903548343746962</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="s" s="421">
-        <v>31</v>
-      </c>
-      <c r="B25" t="n" s="426">
-        <v>54.0</v>
-      </c>
-      <c r="C25" t="n" s="427">
-        <v>0.6379984768824376</v>
-      </c>
-      <c r="D25" t="n" s="428">
-        <v>0.6447328311322502</v>
-      </c>
-      <c r="E25" t="n" s="429">
-        <v>0.5551578678904372</v>
-      </c>
-      <c r="F25" t="n" s="430">
-        <v>0.4764842374608174</v>
-      </c>
-      <c r="G25" t="n" s="431">
-        <v>3.8333333333333335</v>
-      </c>
-      <c r="H25" t="n" s="432">
-        <v>0.946692355041668</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="s" s="421">
-        <v>32</v>
-      </c>
-      <c r="B26" t="n" s="426">
-        <v>54.0</v>
-      </c>
-      <c r="C26" t="n" s="427">
-        <v>0.7098596157855261</v>
-      </c>
-      <c r="D26" t="n" s="428">
-        <v>0.6968751723481621</v>
-      </c>
-      <c r="E26" t="n" s="429">
-        <v>0.636709300348487</v>
-      </c>
-      <c r="F26" t="n" s="430">
-        <v>0.5494917930566535</v>
-      </c>
-      <c r="G26" t="n" s="431">
-        <v>2.7777777777777777</v>
-      </c>
-      <c r="H26" t="n" s="432">
-        <v>1.0580627842174168</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="s" s="421">
-        <v>33</v>
-      </c>
-      <c r="B27" t="n" s="426">
-        <v>54.0</v>
-      </c>
-      <c r="C27" t="n" s="427">
-        <v>0.618248329588119</v>
-      </c>
-      <c r="D27" t="n" s="428">
-        <v>0.6206126740573898</v>
-      </c>
-      <c r="E27" t="n" s="429">
-        <v>0.5205647134954047</v>
-      </c>
-      <c r="F27" t="n" s="430">
-        <v>0.46025948217499</v>
-      </c>
-      <c r="G27" t="n" s="431">
-        <v>3.111111111111111</v>
-      </c>
-      <c r="H27" t="n" s="432">
-        <v>0.9042179288717305</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="s" s="421">
-        <v>34</v>
-      </c>
-      <c r="B28" t="n" s="426">
-        <v>54.0</v>
-      </c>
-      <c r="C28" t="n" s="427">
-        <v>0.6406334698437257</v>
-      </c>
-      <c r="D28" t="n" s="428">
-        <v>0.6445626229213658</v>
-      </c>
-      <c r="E28" t="n" s="429">
-        <v>0.5645973722518131</v>
-      </c>
-      <c r="F28" t="n" s="430">
-        <v>0.49926394660130397</v>
-      </c>
-      <c r="G28" t="n" s="431">
-        <v>2.3518518518518516</v>
-      </c>
-      <c r="H28" t="n" s="432">
-        <v>0.8502476311297721</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="s" s="436">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32"/>
-      <c r="B32" t="s" s="450">
-        <v>42</v>
-      </c>
-      <c r="C32" t="s" s="450">
-        <v>43</v>
-      </c>
-      <c r="D32" t="s" s="450">
-        <v>44</v>
-      </c>
-      <c r="E32" t="s" s="450">
-        <v>45</v>
-      </c>
-      <c r="F32" t="s" s="450">
-        <v>46</v>
-      </c>
-      <c r="G32" t="s" s="450">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="s" s="446">
-        <v>28</v>
-      </c>
-      <c r="B33" t="n" s="451">
-        <v>0.1111111111111111</v>
-      </c>
-      <c r="C33" t="n" s="452">
-        <v>0.16666666666666666</v>
-      </c>
-      <c r="D33" t="n" s="453">
-        <v>0.2777777777777778</v>
-      </c>
-      <c r="E33" t="n" s="454">
-        <v>0.35185185185185186</v>
-      </c>
-      <c r="F33" t="n" s="455">
-        <v>0.09259259259259259</v>
-      </c>
-      <c r="G33" t="n" s="456">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="s" s="446">
-        <v>29</v>
-      </c>
-      <c r="B34" t="n" s="451">
+      <c r="B27" t="n" s="451">
         <v>0.037037037037037035</v>
       </c>
-      <c r="C34" t="n" s="452">
-        <v>0.5370370370370371</v>
-      </c>
-      <c r="D34" t="n" s="453">
-        <v>0.2962962962962963</v>
-      </c>
-      <c r="E34" t="n" s="454">
-        <v>0.09259259259259259</v>
-      </c>
-      <c r="F34" t="n" s="455">
-        <v>0.037037037037037035</v>
-      </c>
-      <c r="G34" t="n" s="456">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="s" s="446">
-        <v>30</v>
-      </c>
-      <c r="B35" t="n" s="451">
-        <v>0.018518518518518517</v>
-      </c>
-      <c r="C35" t="n" s="452">
-        <v>0.37037037037037035</v>
-      </c>
-      <c r="D35" t="n" s="453">
-        <v>0.5</v>
-      </c>
-      <c r="E35" t="n" s="454">
-        <v>0.1111111111111111</v>
-      </c>
-      <c r="F35" t="n" s="455">
-        <v>0.0</v>
-      </c>
-      <c r="G35" t="n" s="456">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="s" s="446">
-        <v>31</v>
-      </c>
-      <c r="B36" t="n" s="451">
-        <v>0.0</v>
-      </c>
-      <c r="C36" t="n" s="452">
-        <v>0.07407407407407407</v>
-      </c>
-      <c r="D36" t="n" s="453">
-        <v>0.3148148148148148</v>
-      </c>
-      <c r="E36" t="n" s="454">
-        <v>0.3148148148148148</v>
-      </c>
-      <c r="F36" t="n" s="455">
-        <v>0.2962962962962963</v>
-      </c>
-      <c r="G36" t="n" s="456">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="s" s="446">
-        <v>32</v>
-      </c>
-      <c r="B37" t="n" s="451">
-        <v>0.07407407407407407</v>
-      </c>
-      <c r="C37" t="n" s="452">
-        <v>0.3888888888888889</v>
-      </c>
-      <c r="D37" t="n" s="453">
-        <v>0.2962962962962963</v>
-      </c>
-      <c r="E37" t="n" s="454">
-        <v>0.16666666666666666</v>
-      </c>
-      <c r="F37" t="n" s="455">
-        <v>0.07407407407407407</v>
-      </c>
-      <c r="G37" t="n" s="456">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="s" s="446">
-        <v>33</v>
-      </c>
-      <c r="B38" t="n" s="451">
-        <v>0.037037037037037035</v>
-      </c>
-      <c r="C38" t="n" s="452">
+      <c r="C27" t="n" s="452">
         <v>0.18518518518518517</v>
       </c>
-      <c r="D38" t="n" s="453">
+      <c r="D27" t="n" s="453">
         <v>0.46296296296296297</v>
       </c>
-      <c r="E38" t="n" s="454">
+      <c r="E27" t="n" s="454">
         <v>0.25925925925925924</v>
       </c>
-      <c r="F38" t="n" s="455">
+      <c r="F27" t="n" s="455">
         <v>0.05555555555555555</v>
       </c>
-      <c r="G38" t="n" s="456">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="s" s="446">
-        <v>34</v>
-      </c>
-      <c r="B39" t="n" s="451">
-        <v>0.16666666666666666</v>
-      </c>
-      <c r="C39" t="n" s="452">
-        <v>0.3888888888888889</v>
-      </c>
-      <c r="D39" t="n" s="453">
-        <v>0.37037037037037035</v>
-      </c>
-      <c r="E39" t="n" s="454">
-        <v>0.07407407407407407</v>
-      </c>
-      <c r="F39" t="n" s="455">
-        <v>0.0</v>
-      </c>
-      <c r="G39" t="n" s="456">
+      <c r="G27" t="n" s="456">
         <v>0.0</v>
       </c>
     </row>
